--- a/examples/node-red-contrib-sonos-plus 40  Commands.xlsx
+++ b/examples/node-red-contrib-sonos-plus 40  Commands.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hekla\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\node-red-contrib-sonos-plus\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DE4337-E751-4FF4-9E71-FD2C88C9F216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126777CB-0369-4387-9F4B-A92D9C2A6622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{12C28715-236A-4339-BC9B-A8B167B552A0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{12C28715-236A-4339-BC9B-A8B167B552A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Universal" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="209">
   <si>
     <t>group.adjust.volume</t>
   </si>
@@ -595,9 +595,6 @@
     <t>full new title</t>
   </si>
   <si>
-    <t>new 'volume</t>
-  </si>
-  <si>
     <t>new volume</t>
   </si>
   <si>
@@ -638,6 +635,33 @@
   </si>
   <si>
     <t>volume 0 … 100</t>
+  </si>
+  <si>
+    <t>player.get.bass</t>
+  </si>
+  <si>
+    <t>bass level</t>
+  </si>
+  <si>
+    <t>number -10 … 10</t>
+  </si>
+  <si>
+    <t>player.get.treble</t>
+  </si>
+  <si>
+    <t>treble level</t>
+  </si>
+  <si>
+    <t>player.set.bass</t>
+  </si>
+  <si>
+    <t>-10 … 10</t>
+  </si>
+  <si>
+    <t>player.set.treble</t>
+  </si>
+  <si>
+    <t>new level</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1430,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1434,6 +1488,96 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -1791,31 +1935,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.04296875" customWidth="1"/>
+    <col min="1" max="1" width="28.06640625" customWidth="1"/>
     <col min="2" max="2" width="24" style="20" customWidth="1"/>
     <col min="3" max="3" width="14.86328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.31640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.19921875" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.76953125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.7265625" customWidth="1"/>
-    <col min="10" max="10" width="19.6796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="76.58984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.73046875" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="76.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="1.5">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="105" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="106"/>
       <c r="C1" s="106"/>
@@ -1833,16 +1977,16 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="21.4" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A2" s="69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" s="75"/>
       <c r="D2" s="88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E2" s="89"/>
       <c r="F2" s="89"/>
@@ -1857,9 +2001,9 @@
       </c>
       <c r="L2" s="103"/>
     </row>
-    <row r="3" spans="1:12" ht="16.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="3" spans="1:12" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>66</v>
@@ -1868,7 +2012,7 @@
         <v>95</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>59</v>
@@ -1893,7 +2037,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="71" t="s">
         <v>0</v>
       </c>
@@ -1901,13 +2045,13 @@
         <v>163</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="63" t="s">
         <v>92</v>
@@ -1929,7 +2073,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="72" t="s">
         <v>1</v>
       </c>
@@ -1943,7 +2087,7 @@
         <v>57</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="64" t="s">
         <v>92</v>
@@ -1965,7 +2109,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="72" t="s">
         <v>2</v>
       </c>
@@ -1979,7 +2123,7 @@
         <v>111</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="64" t="s">
         <v>92</v>
@@ -1999,7 +2143,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="72"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="72" t="s">
         <v>3</v>
       </c>
@@ -2013,7 +2157,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F7" s="64" t="s">
         <v>92</v>
@@ -2035,7 +2179,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="72" t="s">
         <v>4</v>
       </c>
@@ -2049,7 +2193,7 @@
         <v>57</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F8" s="64" t="s">
         <v>92</v>
@@ -2071,7 +2215,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="72" t="s">
         <v>5</v>
       </c>
@@ -2085,7 +2229,7 @@
         <v>57</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F9" s="64" t="s">
         <v>92</v>
@@ -2107,7 +2251,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="72" t="s">
         <v>6</v>
       </c>
@@ -2121,7 +2265,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F10" s="64" t="s">
         <v>92</v>
@@ -2143,7 +2287,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="72" t="s">
         <v>7</v>
       </c>
@@ -2157,7 +2301,7 @@
         <v>57</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F11" s="64" t="s">
         <v>92</v>
@@ -2179,7 +2323,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="72" t="s">
         <v>8</v>
       </c>
@@ -2193,7 +2337,7 @@
         <v>57</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F12" s="64" t="s">
         <v>92</v>
@@ -2215,7 +2359,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="72" t="s">
         <v>9</v>
       </c>
@@ -2229,7 +2373,7 @@
         <v>57</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F13" s="64" t="s">
         <v>92</v>
@@ -2251,7 +2395,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="72" t="s">
         <v>10</v>
       </c>
@@ -2265,7 +2409,7 @@
         <v>57</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F14" s="64" t="s">
         <v>92</v>
@@ -2287,7 +2431,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="72" t="s">
         <v>11</v>
       </c>
@@ -2301,7 +2445,7 @@
         <v>57</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>92</v>
@@ -2323,7 +2467,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="72" t="s">
         <v>12</v>
       </c>
@@ -2337,7 +2481,7 @@
         <v>57</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F16" s="64" t="s">
         <v>92</v>
@@ -2359,7 +2503,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="72" t="s">
         <v>13</v>
       </c>
@@ -2373,13 +2517,13 @@
         <v>57</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G17" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H17" s="81" t="s">
         <v>92</v>
@@ -2395,7 +2539,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="72" t="s">
         <v>14</v>
       </c>
@@ -2409,16 +2553,16 @@
         <v>57</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F18" s="64" t="s">
         <v>92</v>
       </c>
       <c r="G18" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H18" s="93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I18" s="67" t="s">
         <v>85</v>
@@ -2431,7 +2575,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="72" t="s">
         <v>15</v>
       </c>
@@ -2445,13 +2589,13 @@
         <v>158</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F19" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G19" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H19" s="81" t="s">
         <v>92</v>
@@ -2467,7 +2611,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="72" t="s">
         <v>16</v>
       </c>
@@ -2481,13 +2625,13 @@
         <v>57</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H20" s="81" t="s">
         <v>92</v>
@@ -2503,7 +2647,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="72" t="s">
         <v>17</v>
       </c>
@@ -2517,7 +2661,7 @@
         <v>57</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F21" s="64" t="s">
         <v>92</v>
@@ -2539,7 +2683,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="72" t="s">
         <v>18</v>
       </c>
@@ -2553,13 +2697,13 @@
         <v>57</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F22" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G22" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H22" s="81" t="s">
         <v>92</v>
@@ -2575,7 +2719,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="72" t="s">
         <v>19</v>
       </c>
@@ -2589,13 +2733,13 @@
         <v>57</v>
       </c>
       <c r="E23" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F23" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G23" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H23" s="81" t="s">
         <v>92</v>
@@ -2611,7 +2755,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="72" t="s">
         <v>20</v>
       </c>
@@ -2625,13 +2769,13 @@
         <v>57</v>
       </c>
       <c r="E24" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G24" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H24" s="81" t="s">
         <v>92</v>
@@ -2647,7 +2791,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="72" t="s">
         <v>21</v>
       </c>
@@ -2661,7 +2805,7 @@
         <v>57</v>
       </c>
       <c r="E25" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F25" s="64" t="s">
         <v>92</v>
@@ -2683,7 +2827,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="72" t="s">
         <v>22</v>
       </c>
@@ -2697,7 +2841,7 @@
         <v>159</v>
       </c>
       <c r="E26" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F26" s="64" t="s">
         <v>92</v>
@@ -2719,7 +2863,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="72" t="s">
         <v>23</v>
       </c>
@@ -2733,7 +2877,7 @@
         <v>57</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F27" s="64" t="s">
         <v>92</v>
@@ -2755,7 +2899,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="72" t="s">
         <v>24</v>
       </c>
@@ -2769,7 +2913,7 @@
         <v>57</v>
       </c>
       <c r="E28" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F28" s="64" t="s">
         <v>92</v>
@@ -2791,7 +2935,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="72" t="s">
         <v>25</v>
       </c>
@@ -2805,7 +2949,7 @@
         <v>57</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F29" s="64" t="s">
         <v>92</v>
@@ -2827,7 +2971,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="72" t="s">
         <v>26</v>
       </c>
@@ -2841,7 +2985,7 @@
         <v>57</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F30" s="64" t="s">
         <v>92</v>
@@ -2863,7 +3007,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="72" t="s">
         <v>27</v>
       </c>
@@ -2877,7 +3021,7 @@
         <v>57</v>
       </c>
       <c r="E31" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F31" s="64" t="s">
         <v>92</v>
@@ -2899,7 +3043,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="72" t="s">
         <v>28</v>
       </c>
@@ -2913,7 +3057,7 @@
         <v>57</v>
       </c>
       <c r="E32" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F32" s="64" t="s">
         <v>92</v>
@@ -2935,7 +3079,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="72" t="s">
         <v>29</v>
       </c>
@@ -2949,7 +3093,7 @@
         <v>57</v>
       </c>
       <c r="E33" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F33" s="64" t="s">
         <v>92</v>
@@ -2971,7 +3115,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="72" t="s">
         <v>30</v>
       </c>
@@ -2985,7 +3129,7 @@
         <v>57</v>
       </c>
       <c r="E34" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F34" s="64" t="s">
         <v>92</v>
@@ -3007,7 +3151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="72" t="s">
         <v>31</v>
       </c>
@@ -3018,7 +3162,7 @@
         <v>93</v>
       </c>
       <c r="D35" s="94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E35" s="64" t="s">
         <v>92</v>
@@ -3041,7 +3185,7 @@
       <c r="K35" s="39"/>
       <c r="L35" s="72"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="72" t="s">
         <v>32</v>
       </c>
@@ -3075,7 +3219,7 @@
       <c r="K36" s="41"/>
       <c r="L36" s="72"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="72" t="s">
         <v>33</v>
       </c>
@@ -3109,7 +3253,7 @@
       <c r="K37" s="39"/>
       <c r="L37" s="72"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="72" t="s">
         <v>34</v>
       </c>
@@ -3143,12 +3287,12 @@
       <c r="K38" s="39"/>
       <c r="L38" s="72"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="72" t="s">
         <v>94</v>
       </c>
       <c r="B39" s="80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C39" s="83" t="s">
         <v>93</v>
@@ -3177,7 +3321,7 @@
       <c r="K39" s="39"/>
       <c r="L39" s="72"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="72" t="s">
         <v>35</v>
       </c>
@@ -3191,10 +3335,10 @@
         <v>158</v>
       </c>
       <c r="E40" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F40" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G40" s="64" t="s">
         <v>57</v>
@@ -3211,7 +3355,7 @@
       <c r="K40" s="39"/>
       <c r="L40" s="72"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="72" t="s">
         <v>36</v>
       </c>
@@ -3219,13 +3363,13 @@
         <v>163</v>
       </c>
       <c r="C41" s="83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D41" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E41" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F41" s="64" t="s">
         <v>92</v>
@@ -3247,9 +3391,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="72" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="B42" s="80" t="s">
         <v>92</v>
@@ -3261,7 +3405,7 @@
         <v>57</v>
       </c>
       <c r="E42" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F42" s="64" t="s">
         <v>92</v>
@@ -3273,19 +3417,19 @@
         <v>92</v>
       </c>
       <c r="I42" s="67" t="s">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="J42" s="101" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="K42" s="39"/>
       <c r="L42" s="72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="80" t="s">
         <v>92</v>
@@ -3297,7 +3441,7 @@
         <v>57</v>
       </c>
       <c r="E43" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F43" s="64" t="s">
         <v>92</v>
@@ -3319,9 +3463,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="80" t="s">
         <v>92</v>
@@ -3333,7 +3477,7 @@
         <v>57</v>
       </c>
       <c r="E44" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F44" s="64" t="s">
         <v>92</v>
@@ -3355,9 +3499,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="80" t="s">
         <v>92</v>
@@ -3369,7 +3513,7 @@
         <v>57</v>
       </c>
       <c r="E45" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F45" s="64" t="s">
         <v>92</v>
@@ -3391,9 +3535,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="80" t="s">
         <v>92</v>
@@ -3405,7 +3549,7 @@
         <v>57</v>
       </c>
       <c r="E46" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F46" s="64" t="s">
         <v>92</v>
@@ -3427,9 +3571,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="80" t="s">
         <v>92</v>
@@ -3441,7 +3585,7 @@
         <v>57</v>
       </c>
       <c r="E47" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F47" s="64" t="s">
         <v>92</v>
@@ -3453,19 +3597,19 @@
         <v>92</v>
       </c>
       <c r="I47" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J47" s="101" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K47" s="39"/>
       <c r="L47" s="72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="80" t="s">
         <v>92</v>
@@ -3477,7 +3621,7 @@
         <v>57</v>
       </c>
       <c r="E48" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F48" s="64" t="s">
         <v>92</v>
@@ -3489,19 +3633,19 @@
         <v>92</v>
       </c>
       <c r="I48" s="67" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="J48" s="101" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K48" s="39"/>
       <c r="L48" s="72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="80" t="s">
         <v>92</v>
@@ -3513,7 +3657,7 @@
         <v>57</v>
       </c>
       <c r="E49" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F49" s="64" t="s">
         <v>92</v>
@@ -3525,21 +3669,19 @@
         <v>92</v>
       </c>
       <c r="I49" s="67" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J49" s="101" t="s">
-        <v>109</v>
-      </c>
-      <c r="K49" s="38" t="s">
-        <v>59</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K49" s="39"/>
       <c r="L49" s="72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="80" t="s">
         <v>92</v>
@@ -3551,7 +3693,7 @@
         <v>57</v>
       </c>
       <c r="E50" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F50" s="64" t="s">
         <v>92</v>
@@ -3563,19 +3705,21 @@
         <v>92</v>
       </c>
       <c r="I50" s="67" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J50" s="101" t="s">
-        <v>106</v>
-      </c>
-      <c r="K50" s="39"/>
+        <v>109</v>
+      </c>
+      <c r="K50" s="38" t="s">
+        <v>59</v>
+      </c>
       <c r="L50" s="72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="80" t="s">
         <v>92</v>
@@ -3587,7 +3731,7 @@
         <v>57</v>
       </c>
       <c r="E51" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F51" s="64" t="s">
         <v>92</v>
@@ -3599,102 +3743,106 @@
         <v>92</v>
       </c>
       <c r="I51" s="67" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="J51" s="101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K51" s="39"/>
       <c r="L51" s="72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H52" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="J52" s="101" t="s">
+        <v>202</v>
+      </c>
+      <c r="K52" s="39"/>
+      <c r="L52" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A53" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F53" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H53" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I53" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="J53" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="K53" s="39"/>
+      <c r="L53" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A54" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="82" t="s">
+      <c r="B54" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="83" t="s">
+      <c r="C54" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="E52" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="F52" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="G52" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="H52" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="I52" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="J52" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="K52" s="39"/>
-      <c r="L52" s="72"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A53" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="E53" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="F53" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="G53" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="H53" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="I53" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="J53" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="K53" s="39"/>
-      <c r="L53" s="72"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A54" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="83" t="s">
-        <v>165</v>
-      </c>
       <c r="D54" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E54" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="F54" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="F54" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="G54" s="64" t="s">
         <v>92</v>
@@ -3709,25 +3857,23 @@
         <v>57</v>
       </c>
       <c r="K54" s="39"/>
-      <c r="L54" s="72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="L54" s="72"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="83" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="B55" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="81" t="s">
+        <v>57</v>
       </c>
       <c r="D55" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E55" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F55" s="64" t="s">
         <v>92</v>
@@ -3745,28 +3891,26 @@
         <v>57</v>
       </c>
       <c r="K55" s="39"/>
-      <c r="L55" s="72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="L55" s="72"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="72" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B56" s="82" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="C56" s="83" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="D56" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E56" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="F56" s="64" t="s">
-        <v>92</v>
+        <v>187</v>
+      </c>
+      <c r="F56" s="62" t="s">
+        <v>187</v>
       </c>
       <c r="G56" s="64" t="s">
         <v>92</v>
@@ -3782,24 +3926,24 @@
       </c>
       <c r="K56" s="39"/>
       <c r="L56" s="72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.75">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="72" t="s">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="B57" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="83" t="s">
-        <v>63</v>
+        <v>208</v>
+      </c>
+      <c r="C57" s="81" t="s">
+        <v>206</v>
       </c>
       <c r="D57" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E57" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F57" s="64" t="s">
         <v>92</v>
@@ -3821,9 +3965,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="72" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B58" s="82" t="s">
         <v>63</v>
@@ -3835,7 +3979,7 @@
         <v>57</v>
       </c>
       <c r="E58" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F58" s="64" t="s">
         <v>92</v>
@@ -3857,9 +4001,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="72" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B59" s="82" t="s">
         <v>63</v>
@@ -3871,7 +4015,7 @@
         <v>57</v>
       </c>
       <c r="E59" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F59" s="64" t="s">
         <v>92</v>
@@ -3893,21 +4037,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="80" t="s">
-        <v>186</v>
+        <v>52</v>
+      </c>
+      <c r="B60" s="82" t="s">
+        <v>63</v>
       </c>
       <c r="C60" s="83" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="D60" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E60" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F60" s="64" t="s">
         <v>92</v>
@@ -3929,53 +4073,237 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A61" s="73" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A61" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F61" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G61" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H61" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I61" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J61" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="K61" s="39"/>
+      <c r="L61" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A62" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G62" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H62" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I62" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J62" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="K62" s="39"/>
+      <c r="L62" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A63" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G63" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H63" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I63" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J63" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="K63" s="39"/>
+      <c r="L63" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A64" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="D64" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G64" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H64" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I64" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J64" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="K64" s="39"/>
+      <c r="L64" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="86" t="s">
-        <v>187</v>
-      </c>
-      <c r="C61" s="87" t="s">
-        <v>200</v>
-      </c>
-      <c r="D61" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="E61" s="96" t="s">
-        <v>188</v>
-      </c>
-      <c r="F61" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="G61" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="H61" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="I61" s="68" t="s">
+      <c r="B65" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="D65" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="G65" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="H65" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="I65" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="J61" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="K61" s="43"/>
-      <c r="L61" s="73" t="s">
+      <c r="J65" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="K65" s="43"/>
+      <c r="L65" s="73" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L61">
-    <sortCondition ref="A4:A61"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L65">
+    <sortCondition ref="A4:A65"/>
   </sortState>
-  <conditionalFormatting sqref="E4:H61">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="ignored">
+  <conditionalFormatting sqref="E4:H41 E43:H51 E53:H56 E58:H63 E65:H65">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L61">
-    <cfRule type="expression" dxfId="6" priority="4">
+  <conditionalFormatting sqref="A4:L41 A43:L51 A53:L56 A58:L63 A65:L65">
+    <cfRule type="expression" dxfId="18" priority="16">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:H42">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:L42">
+    <cfRule type="expression" dxfId="15" priority="10">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:H52">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:L52">
+    <cfRule type="expression" dxfId="12" priority="7">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:H57">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:L57">
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:H64">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:L64">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3985,7 +4313,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{1556FE7F-47CC-4BB7-BBF9-3F28C014F253}">
+          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{1556FE7F-47CC-4BB7-BBF9-3F28C014F253}">
             <xm:f>NOT(ISERROR(SEARCH("ignored",B4)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
@@ -4001,7 +4329,83 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C4 B5:C61</xm:sqref>
+          <xm:sqref>C4 B5:C41 B43:C51 B53:C56 B58:C63 B65:C65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{06343100-0CC5-4265-9340-32C52B858DAA}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B42)))</xm:f>
+            <xm:f>"ignored"</xm:f>
+            <x14:dxf>
+              <font>
+                <b val="0"/>
+                <i val="0"/>
+                <color theme="0" tint="-0.34998626667073579"/>
+              </font>
+              <fill>
+                <patternFill patternType="none">
+                  <bgColor auto="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B42:C42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{F50224FF-908A-4752-B859-31EA26E3A671}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B52)))</xm:f>
+            <xm:f>"ignored"</xm:f>
+            <x14:dxf>
+              <font>
+                <b val="0"/>
+                <i val="0"/>
+                <color theme="0" tint="-0.34998626667073579"/>
+              </font>
+              <fill>
+                <patternFill patternType="none">
+                  <bgColor auto="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B52:C52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{6E2188D2-4170-4BDA-A538-80F9A47C11A4}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B57)))</xm:f>
+            <xm:f>"ignored"</xm:f>
+            <x14:dxf>
+              <font>
+                <b val="0"/>
+                <i val="0"/>
+                <color theme="0" tint="-0.34998626667073579"/>
+              </font>
+              <fill>
+                <patternFill patternType="none">
+                  <bgColor auto="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B57:C57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{FA22152F-42A3-41DE-AE96-08EF0D8FDFF8}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B64)))</xm:f>
+            <xm:f>"ignored"</xm:f>
+            <x14:dxf>
+              <font>
+                <b val="0"/>
+                <i val="0"/>
+                <color theme="0" tint="-0.34998626667073579"/>
+              </font>
+              <fill>
+                <patternFill patternType="none">
+                  <bgColor auto="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B64:C64</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4020,25 +4424,25 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.04296875" customWidth="1"/>
-    <col min="2" max="2" width="23.31640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.06640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.86328125" customWidth="1"/>
     <col min="4" max="4" width="20" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="20" customWidth="1"/>
-    <col min="6" max="6" width="7.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="10.76953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.76953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="76.58984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.19921875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="76.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="28.75" x14ac:dyDescent="1.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.85">
       <c r="A1" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -4056,12 +4460,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="21.4" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A2" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="53" t="s">
@@ -4080,9 +4484,9 @@
       </c>
       <c r="L2" s="30"/>
     </row>
-    <row r="3" spans="1:12" ht="16.75" thickBot="1" x14ac:dyDescent="0.95">
+    <row r="3" spans="1:12" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>66</v>
@@ -4091,7 +4495,7 @@
         <v>95</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>59</v>
@@ -4116,7 +4520,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="35" t="s">
         <v>118</v>
       </c>
@@ -4127,7 +4531,7 @@
         <v>65</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>92</v>
@@ -4152,7 +4556,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
         <v>117</v>
       </c>
@@ -4188,7 +4592,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="35" t="s">
         <v>116</v>
       </c>
@@ -4224,7 +4628,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="36" t="s">
         <v>114</v>
       </c>
@@ -4260,7 +4664,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="35" t="s">
         <v>115</v>
       </c>
@@ -4271,7 +4675,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>92</v>
@@ -4296,7 +4700,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="35" t="s">
         <v>113</v>
       </c>
@@ -4332,7 +4736,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="10" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="37" t="s">
         <v>112</v>
       </c>
@@ -4370,17 +4774,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4:H10">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L10">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4397,17 +4801,17 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" customWidth="1"/>
-    <col min="5" max="5" width="15.76953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.58984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.9296875" customWidth="1"/>
+    <col min="5" max="5" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>136</v>
       </c>
@@ -4427,7 +4831,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>61</v>
       </c>
@@ -4447,7 +4851,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>156</v>
       </c>
@@ -4463,7 +4867,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>63</v>
       </c>
@@ -4481,7 +4885,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
         <v>93</v>
       </c>
@@ -4501,7 +4905,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
         <v>148</v>
       </c>
@@ -4521,7 +4925,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>175</v>
       </c>
@@ -4539,7 +4943,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>130</v>
       </c>
@@ -4559,7 +4963,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>60</v>
       </c>
@@ -4579,7 +4983,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
         <v>119</v>
       </c>
@@ -4597,7 +5001,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
         <v>157</v>
       </c>
@@ -4611,7 +5015,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
         <v>64</v>
       </c>
@@ -4631,7 +5035,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
         <v>65</v>
       </c>
@@ -4651,7 +5055,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
         <v>165</v>
       </c>
@@ -4671,7 +5075,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="15" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
         <v>58</v>
       </c>
@@ -4694,12 +5098,12 @@
     <sortCondition ref="A2:A15"/>
   </sortState>
   <conditionalFormatting sqref="B2:B15">
-    <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="ignored">
+    <cfRule type="notContainsText" dxfId="4" priority="2" operator="notContains" text="ignored">
       <formula>ISERROR(SEARCH("ignored",B2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F15">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/examples/node-red-contrib-sonos-plus 40  Commands.xlsx
+++ b/examples/node-red-contrib-sonos-plus 40  Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\node-red-contrib-sonos-plus\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126777CB-0369-4387-9F4B-A92D9C2A6622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF72834C-619E-41B6-82A3-665C16A3E722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{12C28715-236A-4339-BC9B-A8B167B552A0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="212">
   <si>
     <t>group.adjust.volume</t>
   </si>
@@ -662,6 +662,15 @@
   </si>
   <si>
     <t>new level</t>
+  </si>
+  <si>
+    <t>group.queue.uri</t>
+  </si>
+  <si>
+    <t>acts on the group</t>
+  </si>
+  <si>
+    <t>uri from spotify</t>
   </si>
 </sst>
 </file>
@@ -1430,37 +1439,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill>
@@ -1575,6 +1554,54 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <fgColor auto="1"/>
@@ -1593,9 +1620,51 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
@@ -1935,10 +2004,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2829,16 +2898,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" s="83" t="s">
-        <v>148</v>
+        <v>209</v>
+      </c>
+      <c r="B26" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="81" t="s">
+        <v>165</v>
       </c>
       <c r="D26" s="78" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>187</v>
@@ -2860,18 +2929,18 @@
       </c>
       <c r="K26" s="39"/>
       <c r="L26" s="72" t="s">
-        <v>76</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="82" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" s="83" t="s">
-        <v>65</v>
+        <v>209</v>
+      </c>
+      <c r="B27" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="81" t="s">
+        <v>165</v>
       </c>
       <c r="D27" s="78" t="s">
         <v>57</v>
@@ -2896,21 +2965,21 @@
       </c>
       <c r="K27" s="39"/>
       <c r="L27" s="72" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="72" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="82" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C28" s="83" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>187</v>
@@ -2932,18 +3001,18 @@
       </c>
       <c r="K28" s="39"/>
       <c r="L28" s="72" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="82" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="C29" s="83" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D29" s="78" t="s">
         <v>57</v>
@@ -2968,18 +3037,18 @@
       </c>
       <c r="K29" s="39"/>
       <c r="L29" s="72" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="72" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" s="82" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="C30" s="83" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" s="78" t="s">
         <v>57</v>
@@ -3004,18 +3073,18 @@
       </c>
       <c r="K30" s="39"/>
       <c r="L30" s="72" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="72" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B31" s="82" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="C31" s="83" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="D31" s="78" t="s">
         <v>57</v>
@@ -3040,18 +3109,18 @@
       </c>
       <c r="K31" s="39"/>
       <c r="L31" s="72" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="72" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B32" s="82" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="C32" s="83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="78" t="s">
         <v>57</v>
@@ -3076,18 +3145,18 @@
       </c>
       <c r="K32" s="39"/>
       <c r="L32" s="72" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="84" t="s">
-        <v>57</v>
+        <v>27</v>
+      </c>
+      <c r="B33" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>175</v>
       </c>
       <c r="D33" s="78" t="s">
         <v>57</v>
@@ -3112,18 +3181,18 @@
       </c>
       <c r="K33" s="39"/>
       <c r="L33" s="72" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="84" t="s">
-        <v>57</v>
+        <v>28</v>
+      </c>
+      <c r="B34" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="83" t="s">
+        <v>64</v>
       </c>
       <c r="D34" s="78" t="s">
         <v>57</v>
@@ -3148,24 +3217,24 @@
       </c>
       <c r="K34" s="39"/>
       <c r="L34" s="72" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="E35" s="64" t="s">
-        <v>92</v>
+        <v>92</v>
+      </c>
+      <c r="C35" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="62" t="s">
+        <v>187</v>
       </c>
       <c r="F35" s="64" t="s">
         <v>92</v>
@@ -3183,23 +3252,25 @@
         <v>57</v>
       </c>
       <c r="K35" s="39"/>
-      <c r="L35" s="72"/>
+      <c r="L35" s="72" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="81" t="s">
+      <c r="C36" s="84" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="64" t="s">
-        <v>92</v>
+      <c r="E36" s="62" t="s">
+        <v>187</v>
       </c>
       <c r="F36" s="64" t="s">
         <v>92</v>
@@ -3211,28 +3282,30 @@
         <v>92</v>
       </c>
       <c r="I36" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J36" s="101" t="s">
-        <v>101</v>
-      </c>
-      <c r="K36" s="41"/>
-      <c r="L36" s="72"/>
+        <v>57</v>
+      </c>
+      <c r="K36" s="39"/>
+      <c r="L36" s="72" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="85" t="s">
-        <v>174</v>
+        <v>31</v>
+      </c>
+      <c r="B37" s="80" t="s">
+        <v>169</v>
       </c>
       <c r="C37" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="E37" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="64" t="s">
         <v>92</v>
       </c>
       <c r="F37" s="64" t="s">
@@ -3255,13 +3328,13 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B38" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="83" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="C38" s="81" t="s">
+        <v>57</v>
       </c>
       <c r="D38" s="78" t="s">
         <v>57</v>
@@ -3279,28 +3352,28 @@
         <v>92</v>
       </c>
       <c r="I38" s="67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J38" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="K38" s="39"/>
+        <v>101</v>
+      </c>
+      <c r="K38" s="41"/>
       <c r="L38" s="72"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="80" t="s">
-        <v>195</v>
+        <v>33</v>
+      </c>
+      <c r="B39" s="85" t="s">
+        <v>174</v>
       </c>
       <c r="C39" s="83" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D39" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" s="45" t="s">
         <v>92</v>
       </c>
       <c r="F39" s="64" t="s">
@@ -3313,38 +3386,38 @@
         <v>92</v>
       </c>
       <c r="I39" s="67" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J39" s="101" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="K39" s="39"/>
       <c r="L39" s="72"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="82" t="s">
-        <v>164</v>
+        <v>34</v>
+      </c>
+      <c r="B40" s="80" t="s">
+        <v>169</v>
       </c>
       <c r="C40" s="83" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="D40" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="E40" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="F40" s="62" t="s">
-        <v>187</v>
+        <v>57</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="G40" s="64" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="H40" s="81" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="I40" s="67" t="s">
         <v>85</v>
@@ -3357,19 +3430,19 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="82" t="s">
-        <v>163</v>
+        <v>94</v>
+      </c>
+      <c r="B41" s="80" t="s">
+        <v>195</v>
       </c>
       <c r="C41" s="83" t="s">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="D41" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="62" t="s">
-        <v>187</v>
+      <c r="E41" s="59" t="s">
+        <v>92</v>
       </c>
       <c r="F41" s="64" t="s">
         <v>92</v>
@@ -3381,61 +3454,57 @@
         <v>92</v>
       </c>
       <c r="I41" s="67" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J41" s="101" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K41" s="39"/>
-      <c r="L41" s="72" t="s">
-        <v>70</v>
-      </c>
+      <c r="L41" s="72"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="B42" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="81" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="B42" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="83" t="s">
+        <v>165</v>
       </c>
       <c r="D42" s="78" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="E42" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="F42" s="64" t="s">
-        <v>92</v>
+      <c r="F42" s="62" t="s">
+        <v>187</v>
       </c>
       <c r="G42" s="64" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="H42" s="81" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="I42" s="67" t="s">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="J42" s="101" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="K42" s="39"/>
-      <c r="L42" s="72" t="s">
-        <v>70</v>
-      </c>
+      <c r="L42" s="72"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="81" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="B43" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" s="83" t="s">
+        <v>198</v>
       </c>
       <c r="D43" s="78" t="s">
         <v>57</v>
@@ -3453,10 +3522,10 @@
         <v>92</v>
       </c>
       <c r="I43" s="67" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="J43" s="101" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="K43" s="39"/>
       <c r="L43" s="72" t="s">
@@ -3465,7 +3534,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="72" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="B44" s="80" t="s">
         <v>92</v>
@@ -3489,10 +3558,10 @@
         <v>92</v>
       </c>
       <c r="I44" s="67" t="s">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="J44" s="101" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="K44" s="39"/>
       <c r="L44" s="72" t="s">
@@ -3501,7 +3570,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B45" s="80" t="s">
         <v>92</v>
@@ -3537,7 +3606,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B46" s="80" t="s">
         <v>92</v>
@@ -3573,7 +3642,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B47" s="80" t="s">
         <v>92</v>
@@ -3609,7 +3678,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B48" s="80" t="s">
         <v>92</v>
@@ -3633,10 +3702,10 @@
         <v>92</v>
       </c>
       <c r="I48" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J48" s="101" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K48" s="39"/>
       <c r="L48" s="72" t="s">
@@ -3645,7 +3714,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B49" s="80" t="s">
         <v>92</v>
@@ -3669,10 +3738,10 @@
         <v>92</v>
       </c>
       <c r="I49" s="67" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="J49" s="101" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K49" s="39"/>
       <c r="L49" s="72" t="s">
@@ -3681,7 +3750,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="72" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B50" s="80" t="s">
         <v>92</v>
@@ -3705,21 +3774,19 @@
         <v>92</v>
       </c>
       <c r="I50" s="67" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J50" s="101" t="s">
-        <v>109</v>
-      </c>
-      <c r="K50" s="38" t="s">
-        <v>59</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K50" s="39"/>
       <c r="L50" s="72" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B51" s="80" t="s">
         <v>92</v>
@@ -3743,10 +3810,10 @@
         <v>92</v>
       </c>
       <c r="I51" s="67" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="J51" s="101" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K51" s="39"/>
       <c r="L51" s="72" t="s">
@@ -3755,7 +3822,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="72" t="s">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="B52" s="80" t="s">
         <v>92</v>
@@ -3779,19 +3846,21 @@
         <v>92</v>
       </c>
       <c r="I52" s="67" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="J52" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="K52" s="39"/>
+        <v>109</v>
+      </c>
+      <c r="K52" s="38" t="s">
+        <v>59</v>
+      </c>
       <c r="L52" s="72" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" s="80" t="s">
         <v>92</v>
@@ -3815,10 +3884,10 @@
         <v>92</v>
       </c>
       <c r="I53" s="67" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="J53" s="101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K53" s="39"/>
       <c r="L53" s="72" t="s">
@@ -3827,13 +3896,13 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="82" t="s">
-        <v>170</v>
-      </c>
-      <c r="C54" s="83" t="s">
-        <v>93</v>
+        <v>203</v>
+      </c>
+      <c r="B54" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="81" t="s">
+        <v>57</v>
       </c>
       <c r="D54" s="78" t="s">
         <v>57</v>
@@ -3851,17 +3920,19 @@
         <v>92</v>
       </c>
       <c r="I54" s="67" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="J54" s="101" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="K54" s="39"/>
-      <c r="L54" s="72"/>
+      <c r="L54" s="72" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B55" s="80" t="s">
         <v>92</v>
@@ -3885,23 +3956,25 @@
         <v>92</v>
       </c>
       <c r="I55" s="67" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="J55" s="101" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="K55" s="39"/>
-      <c r="L55" s="72"/>
+      <c r="L55" s="72" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B56" s="82" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C56" s="83" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="D56" s="78" t="s">
         <v>57</v>
@@ -3909,8 +3982,8 @@
       <c r="E56" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="F56" s="62" t="s">
-        <v>187</v>
+      <c r="F56" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="G56" s="64" t="s">
         <v>92</v>
@@ -3925,19 +3998,17 @@
         <v>57</v>
       </c>
       <c r="K56" s="39"/>
-      <c r="L56" s="72" t="s">
-        <v>78</v>
-      </c>
+      <c r="L56" s="72"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="B57" s="82" t="s">
-        <v>208</v>
+        <v>48</v>
+      </c>
+      <c r="B57" s="80" t="s">
+        <v>92</v>
       </c>
       <c r="C57" s="81" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="D57" s="78" t="s">
         <v>57</v>
@@ -3961,19 +4032,17 @@
         <v>57</v>
       </c>
       <c r="K57" s="39"/>
-      <c r="L57" s="72" t="s">
-        <v>70</v>
-      </c>
+      <c r="L57" s="72"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" s="82" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="C58" s="83" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="D58" s="78" t="s">
         <v>57</v>
@@ -3981,8 +4050,8 @@
       <c r="E58" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="F58" s="64" t="s">
-        <v>92</v>
+      <c r="F58" s="62" t="s">
+        <v>187</v>
       </c>
       <c r="G58" s="64" t="s">
         <v>92</v>
@@ -3998,18 +4067,18 @@
       </c>
       <c r="K58" s="39"/>
       <c r="L58" s="72" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="72" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="B59" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="83" t="s">
-        <v>63</v>
+        <v>208</v>
+      </c>
+      <c r="C59" s="81" t="s">
+        <v>206</v>
       </c>
       <c r="D59" s="78" t="s">
         <v>57</v>
@@ -4039,7 +4108,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="72" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B60" s="82" t="s">
         <v>63</v>
@@ -4075,7 +4144,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="72" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B61" s="82" t="s">
         <v>63</v>
@@ -4111,7 +4180,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="72" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B62" s="82" t="s">
         <v>63</v>
@@ -4147,13 +4216,13 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="80" t="s">
-        <v>186</v>
+        <v>53</v>
+      </c>
+      <c r="B63" s="82" t="s">
+        <v>63</v>
       </c>
       <c r="C63" s="83" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="D63" s="78" t="s">
         <v>57</v>
@@ -4183,13 +4252,13 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="72" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="B64" s="82" t="s">
-        <v>208</v>
-      </c>
-      <c r="C64" s="81" t="s">
-        <v>206</v>
+        <v>63</v>
+      </c>
+      <c r="C64" s="83" t="s">
+        <v>63</v>
       </c>
       <c r="D64" s="78" t="s">
         <v>57</v>
@@ -4217,93 +4286,185 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="73" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A65" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G65" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H65" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I65" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J65" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="K65" s="39"/>
+      <c r="L65" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A66" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="D66" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F66" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G66" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H66" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I66" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J66" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="K66" s="39"/>
+      <c r="L66" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="86" t="s">
+      <c r="B67" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="C65" s="87" t="s">
+      <c r="C67" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="D65" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" s="96" t="s">
-        <v>187</v>
-      </c>
-      <c r="F65" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="G65" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="H65" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="I65" s="68" t="s">
+      <c r="D67" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="G67" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="H67" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="J65" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="K65" s="43"/>
-      <c r="L65" s="73" t="s">
+      <c r="J67" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="K67" s="43"/>
+      <c r="L67" s="73" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L65">
-    <sortCondition ref="A4:A65"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L67">
+    <sortCondition ref="A4:A67"/>
   </sortState>
-  <conditionalFormatting sqref="E4:H41 E43:H51 E53:H56 E58:H63 E65:H65">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="ignored">
+  <conditionalFormatting sqref="E4:H25 E45:H53 E55:H58 E60:H65 E67:H67 E28:H43">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L41 A43:L51 A53:L56 A58:L63 A65:L65">
-    <cfRule type="expression" dxfId="18" priority="16">
+  <conditionalFormatting sqref="A4:L25 A45:L53 A55:L58 A60:L65 A67:L67 A28:L43">
+    <cfRule type="expression" dxfId="24" priority="22">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:H42">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E42)))</formula>
+  <conditionalFormatting sqref="E44:H44">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:L42">
-    <cfRule type="expression" dxfId="15" priority="10">
+  <conditionalFormatting sqref="A44:L44">
+    <cfRule type="expression" dxfId="22" priority="16">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52:H52">
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E52)))</formula>
+  <conditionalFormatting sqref="E54:H54">
+    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:L52">
-    <cfRule type="expression" dxfId="12" priority="7">
+  <conditionalFormatting sqref="A54:L54">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57:H57">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E57)))</formula>
+  <conditionalFormatting sqref="E59:H59">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E59)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:L57">
+  <conditionalFormatting sqref="A59:L59">
+    <cfRule type="expression" dxfId="18" priority="10">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66:H66">
+    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:L66">
+    <cfRule type="expression" dxfId="16" priority="7">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:H26">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:L26">
     <cfRule type="expression" dxfId="9" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64:H64">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E64)))</formula>
+  <conditionalFormatting sqref="E27:H27">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:L64">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A27:L27">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4313,7 +4474,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{1556FE7F-47CC-4BB7-BBF9-3F28C014F253}">
+          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{1556FE7F-47CC-4BB7-BBF9-3F28C014F253}">
             <xm:f>NOT(ISERROR(SEARCH("ignored",B4)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
@@ -4329,11 +4490,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C4 B5:C41 B43:C51 B53:C56 B58:C63 B65:C65</xm:sqref>
+          <xm:sqref>C4 B5:C25 B45:C53 B55:C58 B60:C65 B67:C67 B28:C43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{06343100-0CC5-4265-9340-32C52B858DAA}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B42)))</xm:f>
+          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{06343100-0CC5-4265-9340-32C52B858DAA}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B44)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4348,11 +4509,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B42:C42</xm:sqref>
+          <xm:sqref>B44:C44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{F50224FF-908A-4752-B859-31EA26E3A671}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B52)))</xm:f>
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{F50224FF-908A-4752-B859-31EA26E3A671}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B54)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4367,11 +4528,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B52:C52</xm:sqref>
+          <xm:sqref>B54:C54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{6E2188D2-4170-4BDA-A538-80F9A47C11A4}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B57)))</xm:f>
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{6E2188D2-4170-4BDA-A538-80F9A47C11A4}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B59)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4386,11 +4547,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B57:C57</xm:sqref>
+          <xm:sqref>B59:C59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{FA22152F-42A3-41DE-AE96-08EF0D8FDFF8}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B64)))</xm:f>
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{FA22152F-42A3-41DE-AE96-08EF0D8FDFF8}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B66)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4405,7 +4566,45 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B64:C64</xm:sqref>
+          <xm:sqref>B66:C66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{8720D447-91FC-4C0D-A4B3-100E6B7FF6BE}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B26)))</xm:f>
+            <xm:f>"ignored"</xm:f>
+            <x14:dxf>
+              <font>
+                <b val="0"/>
+                <i val="0"/>
+                <color theme="0" tint="-0.34998626667073579"/>
+              </font>
+              <fill>
+                <patternFill patternType="none">
+                  <bgColor auto="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B26:C26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{59012C07-666C-4F56-95B0-78771C9B381A}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B27)))</xm:f>
+            <xm:f>"ignored"</xm:f>
+            <x14:dxf>
+              <font>
+                <b val="0"/>
+                <i val="0"/>
+                <color theme="0" tint="-0.34998626667073579"/>
+              </font>
+              <fill>
+                <patternFill patternType="none">
+                  <bgColor auto="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B27:C27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4774,17 +4973,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4:H10">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L10">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5098,12 +5297,12 @@
     <sortCondition ref="A2:A15"/>
   </sortState>
   <conditionalFormatting sqref="B2:B15">
-    <cfRule type="notContainsText" dxfId="4" priority="2" operator="notContains" text="ignored">
+    <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="ignored">
       <formula>ISERROR(SEARCH("ignored",B2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F15">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/examples/node-red-contrib-sonos-plus 40  Commands.xlsx
+++ b/examples/node-red-contrib-sonos-plus 40  Commands.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\node-red-contrib-sonos-plus\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hekla\Development\node-red-contrib-sonos-plus\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF72834C-619E-41B6-82A3-665C16A3E722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57E26C4-9506-41FB-BDB0-9511EDD3FDB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{12C28715-236A-4339-BC9B-A8B167B552A0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="216">
   <si>
     <t>group.adjust.volume</t>
   </si>
@@ -671,6 +671,18 @@
   </si>
   <si>
     <t>uri from spotify</t>
+  </si>
+  <si>
+    <t>group.seek.delta</t>
+  </si>
+  <si>
+    <t>+/-time'</t>
+  </si>
+  <si>
+    <t>group.get.actions</t>
+  </si>
+  <si>
+    <t>csv string of valid actions</t>
   </si>
 </sst>
 </file>
@@ -1439,48 +1451,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <b val="0"/>
@@ -1512,10 +1483,17 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="5"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1524,9 +1502,13 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <fgColor auto="1"/>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -1593,6 +1575,96 @@
       <font>
         <b val="0"/>
         <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
@@ -2004,10 +2076,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2214,7 +2286,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="72" t="s">
-        <v>3</v>
+        <v>214</v>
       </c>
       <c r="B7" s="80" t="s">
         <v>92</v>
@@ -2238,7 +2310,7 @@
         <v>92</v>
       </c>
       <c r="I7" s="67" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="J7" s="101" t="s">
         <v>97</v>
@@ -2250,7 +2322,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="80" t="s">
         <v>92</v>
@@ -2281,12 +2353,12 @@
       </c>
       <c r="K8" s="41"/>
       <c r="L8" s="72" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="80" t="s">
         <v>92</v>
@@ -2310,19 +2382,19 @@
         <v>92</v>
       </c>
       <c r="I9" s="67" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J9" s="101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K9" s="41"/>
       <c r="L9" s="72" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>92</v>
@@ -2346,19 +2418,19 @@
         <v>92</v>
       </c>
       <c r="I10" s="67" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J10" s="101" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="72" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>92</v>
@@ -2382,19 +2454,19 @@
         <v>92</v>
       </c>
       <c r="I11" s="67" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="J11" s="101" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K11" s="41"/>
       <c r="L11" s="72" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="80" t="s">
         <v>92</v>
@@ -2418,19 +2490,19 @@
         <v>92</v>
       </c>
       <c r="I12" s="67" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="J12" s="101" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K12" s="41"/>
       <c r="L12" s="72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="80" t="s">
         <v>92</v>
@@ -2454,19 +2526,19 @@
         <v>92</v>
       </c>
       <c r="I13" s="67" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="J13" s="101" t="s">
         <v>96</v>
       </c>
       <c r="K13" s="41"/>
       <c r="L13" s="72" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>92</v>
@@ -2490,19 +2562,19 @@
         <v>92</v>
       </c>
       <c r="I14" s="67" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="J14" s="101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="72" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="80" t="s">
         <v>92</v>
@@ -2526,19 +2598,19 @@
         <v>92</v>
       </c>
       <c r="I15" s="67" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J15" s="101" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="72" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="80" t="s">
         <v>92</v>
@@ -2569,12 +2641,12 @@
       </c>
       <c r="K16" s="41"/>
       <c r="L16" s="72" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="80" t="s">
         <v>92</v>
@@ -2588,11 +2660,11 @@
       <c r="E17" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="F17" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="G17" s="62" t="s">
-        <v>187</v>
+      <c r="F17" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="H17" s="81" t="s">
         <v>92</v>
@@ -2610,28 +2682,28 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="80" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="C18" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E18" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="F18" s="64" t="s">
-        <v>92</v>
+      <c r="F18" s="62" t="s">
+        <v>187</v>
       </c>
       <c r="G18" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="H18" s="93" t="s">
-        <v>187</v>
+      <c r="H18" s="81" t="s">
+        <v>92</v>
       </c>
       <c r="I18" s="67" t="s">
         <v>85</v>
@@ -2646,28 +2718,28 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="83" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="78" t="s">
-        <v>158</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="92" t="s">
+        <v>57</v>
       </c>
       <c r="E19" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="F19" s="62" t="s">
-        <v>187</v>
+      <c r="F19" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="G19" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="H19" s="81" t="s">
-        <v>92</v>
+      <c r="H19" s="93" t="s">
+        <v>187</v>
       </c>
       <c r="I19" s="67" t="s">
         <v>85</v>
@@ -2675,23 +2747,23 @@
       <c r="J19" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="39"/>
+      <c r="K19" s="41"/>
       <c r="L19" s="72" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="81" t="s">
-        <v>57</v>
+        <v>15</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="83" t="s">
+        <v>165</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>187</v>
@@ -2718,13 +2790,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="80" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="C21" s="81" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D21" s="78" t="s">
         <v>57</v>
@@ -2732,11 +2804,11 @@
       <c r="E21" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="F21" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="64" t="s">
-        <v>92</v>
+      <c r="F21" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="62" t="s">
+        <v>187</v>
       </c>
       <c r="H21" s="81" t="s">
         <v>92</v>
@@ -2754,13 +2826,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="82" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="83" t="s">
-        <v>165</v>
+        <v>17</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="81" t="s">
+        <v>96</v>
       </c>
       <c r="D22" s="78" t="s">
         <v>57</v>
@@ -2768,11 +2840,11 @@
       <c r="E22" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="F22" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="G22" s="62" t="s">
-        <v>187</v>
+      <c r="F22" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="H22" s="81" t="s">
         <v>92</v>
@@ -2790,13 +2862,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="82" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C23" s="83" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="D23" s="78" t="s">
         <v>57</v>
@@ -2826,13 +2898,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="82" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="C24" s="83" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="D24" s="78" t="s">
         <v>57</v>
@@ -2862,13 +2934,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="81" t="s">
-        <v>57</v>
+        <v>20</v>
+      </c>
+      <c r="B25" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="83" t="s">
+        <v>62</v>
       </c>
       <c r="D25" s="78" t="s">
         <v>57</v>
@@ -2876,11 +2948,11 @@
       <c r="E25" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="F25" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>92</v>
+      <c r="F25" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>187</v>
       </c>
       <c r="H25" s="81" t="s">
         <v>92</v>
@@ -2893,18 +2965,18 @@
       </c>
       <c r="K25" s="39"/>
       <c r="L25" s="72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="72" t="s">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="B26" s="80" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="D26" s="78" t="s">
         <v>57</v>
@@ -2929,7 +3001,7 @@
       </c>
       <c r="K26" s="39"/>
       <c r="L26" s="72" t="s">
-        <v>210</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
@@ -2937,7 +3009,7 @@
         <v>209</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C27" s="81" t="s">
         <v>165</v>
@@ -2970,16 +3042,16 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="83" t="s">
-        <v>148</v>
+        <v>209</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" s="81" t="s">
+        <v>165</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>187</v>
@@ -3001,21 +3073,21 @@
       </c>
       <c r="K28" s="39"/>
       <c r="L28" s="72" t="s">
-        <v>76</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C29" s="83" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="D29" s="78" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="E29" s="62" t="s">
         <v>187</v>
@@ -3037,18 +3109,18 @@
       </c>
       <c r="K29" s="39"/>
       <c r="L29" s="72" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="82" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C30" s="83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D30" s="78" t="s">
         <v>57</v>
@@ -3073,18 +3145,18 @@
       </c>
       <c r="K30" s="39"/>
       <c r="L30" s="72" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="82" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="C31" s="83" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D31" s="78" t="s">
         <v>57</v>
@@ -3109,18 +3181,18 @@
       </c>
       <c r="K31" s="39"/>
       <c r="L31" s="72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="72" t="s">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="B32" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="83" t="s">
-        <v>63</v>
+        <v>167</v>
+      </c>
+      <c r="C32" s="81" t="s">
+        <v>213</v>
       </c>
       <c r="D32" s="78" t="s">
         <v>57</v>
@@ -3145,18 +3217,18 @@
       </c>
       <c r="K32" s="39"/>
       <c r="L32" s="72" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="72" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33" s="82" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="C33" s="83" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="D33" s="78" t="s">
         <v>57</v>
@@ -3181,18 +3253,18 @@
       </c>
       <c r="K33" s="39"/>
       <c r="L33" s="72" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="72" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" s="82" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="C34" s="83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="78" t="s">
         <v>57</v>
@@ -3217,18 +3289,18 @@
       </c>
       <c r="K34" s="39"/>
       <c r="L34" s="72" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="84" t="s">
-        <v>57</v>
+        <v>27</v>
+      </c>
+      <c r="B35" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="83" t="s">
+        <v>175</v>
       </c>
       <c r="D35" s="78" t="s">
         <v>57</v>
@@ -3253,18 +3325,18 @@
       </c>
       <c r="K35" s="39"/>
       <c r="L35" s="72" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="84" t="s">
-        <v>57</v>
+        <v>28</v>
+      </c>
+      <c r="B36" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="83" t="s">
+        <v>64</v>
       </c>
       <c r="D36" s="78" t="s">
         <v>57</v>
@@ -3289,24 +3361,24 @@
       </c>
       <c r="K36" s="39"/>
       <c r="L36" s="72" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B37" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="C37" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="E37" s="64" t="s">
-        <v>92</v>
+        <v>92</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>187</v>
       </c>
       <c r="F37" s="64" t="s">
         <v>92</v>
@@ -3324,23 +3396,25 @@
         <v>57</v>
       </c>
       <c r="K37" s="39"/>
-      <c r="L37" s="72"/>
+      <c r="L37" s="72" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B38" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="84" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="64" t="s">
-        <v>92</v>
+      <c r="E38" s="62" t="s">
+        <v>187</v>
       </c>
       <c r="F38" s="64" t="s">
         <v>92</v>
@@ -3352,28 +3426,30 @@
         <v>92</v>
       </c>
       <c r="I38" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J38" s="101" t="s">
-        <v>101</v>
-      </c>
-      <c r="K38" s="41"/>
-      <c r="L38" s="72"/>
+        <v>57</v>
+      </c>
+      <c r="K38" s="39"/>
+      <c r="L38" s="72" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="85" t="s">
-        <v>174</v>
+        <v>31</v>
+      </c>
+      <c r="B39" s="80" t="s">
+        <v>169</v>
       </c>
       <c r="C39" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="E39" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="64" t="s">
         <v>92</v>
       </c>
       <c r="F39" s="64" t="s">
@@ -3396,13 +3472,13 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B40" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="83" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="C40" s="81" t="s">
+        <v>57</v>
       </c>
       <c r="D40" s="78" t="s">
         <v>57</v>
@@ -3420,28 +3496,28 @@
         <v>92</v>
       </c>
       <c r="I40" s="67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J40" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="K40" s="39"/>
+        <v>101</v>
+      </c>
+      <c r="K40" s="41"/>
       <c r="L40" s="72"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="80" t="s">
-        <v>195</v>
+        <v>33</v>
+      </c>
+      <c r="B41" s="85" t="s">
+        <v>174</v>
       </c>
       <c r="C41" s="83" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D41" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="45" t="s">
         <v>92</v>
       </c>
       <c r="F41" s="64" t="s">
@@ -3454,38 +3530,38 @@
         <v>92</v>
       </c>
       <c r="I41" s="67" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J41" s="101" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="K41" s="39"/>
       <c r="L41" s="72"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="82" t="s">
-        <v>164</v>
+        <v>34</v>
+      </c>
+      <c r="B42" s="80" t="s">
+        <v>169</v>
       </c>
       <c r="C42" s="83" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="D42" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="E42" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="F42" s="62" t="s">
-        <v>187</v>
+        <v>57</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="G42" s="64" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="H42" s="81" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="I42" s="67" t="s">
         <v>85</v>
@@ -3498,19 +3574,19 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="82" t="s">
-        <v>163</v>
+        <v>94</v>
+      </c>
+      <c r="B43" s="80" t="s">
+        <v>195</v>
       </c>
       <c r="C43" s="83" t="s">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="D43" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="62" t="s">
-        <v>187</v>
+      <c r="E43" s="59" t="s">
+        <v>92</v>
       </c>
       <c r="F43" s="64" t="s">
         <v>92</v>
@@ -3522,61 +3598,57 @@
         <v>92</v>
       </c>
       <c r="I43" s="67" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J43" s="101" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K43" s="39"/>
-      <c r="L43" s="72" t="s">
-        <v>70</v>
-      </c>
+      <c r="L43" s="72"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="B44" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="81" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="B44" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="83" t="s">
+        <v>165</v>
       </c>
       <c r="D44" s="78" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="E44" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="F44" s="64" t="s">
-        <v>92</v>
+      <c r="F44" s="62" t="s">
+        <v>187</v>
       </c>
       <c r="G44" s="64" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="H44" s="81" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="I44" s="67" t="s">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="J44" s="101" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="K44" s="39"/>
-      <c r="L44" s="72" t="s">
-        <v>70</v>
-      </c>
+      <c r="L44" s="72"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="81" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="B45" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="83" t="s">
+        <v>198</v>
       </c>
       <c r="D45" s="78" t="s">
         <v>57</v>
@@ -3594,10 +3666,10 @@
         <v>92</v>
       </c>
       <c r="I45" s="67" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="J45" s="101" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="K45" s="39"/>
       <c r="L45" s="72" t="s">
@@ -3606,7 +3678,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="72" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="B46" s="80" t="s">
         <v>92</v>
@@ -3630,10 +3702,10 @@
         <v>92</v>
       </c>
       <c r="I46" s="67" t="s">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="J46" s="101" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="K46" s="39"/>
       <c r="L46" s="72" t="s">
@@ -3642,7 +3714,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B47" s="80" t="s">
         <v>92</v>
@@ -3678,7 +3750,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B48" s="80" t="s">
         <v>92</v>
@@ -3714,7 +3786,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B49" s="80" t="s">
         <v>92</v>
@@ -3750,7 +3822,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B50" s="80" t="s">
         <v>92</v>
@@ -3774,10 +3846,10 @@
         <v>92</v>
       </c>
       <c r="I50" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J50" s="101" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K50" s="39"/>
       <c r="L50" s="72" t="s">
@@ -3786,7 +3858,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B51" s="80" t="s">
         <v>92</v>
@@ -3810,10 +3882,10 @@
         <v>92</v>
       </c>
       <c r="I51" s="67" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="J51" s="101" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K51" s="39"/>
       <c r="L51" s="72" t="s">
@@ -3822,7 +3894,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="72" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B52" s="80" t="s">
         <v>92</v>
@@ -3846,21 +3918,19 @@
         <v>92</v>
       </c>
       <c r="I52" s="67" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J52" s="101" t="s">
-        <v>109</v>
-      </c>
-      <c r="K52" s="38" t="s">
-        <v>59</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K52" s="39"/>
       <c r="L52" s="72" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B53" s="80" t="s">
         <v>92</v>
@@ -3884,10 +3954,10 @@
         <v>92</v>
       </c>
       <c r="I53" s="67" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="J53" s="101" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K53" s="39"/>
       <c r="L53" s="72" t="s">
@@ -3896,7 +3966,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="72" t="s">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="B54" s="80" t="s">
         <v>92</v>
@@ -3920,19 +3990,21 @@
         <v>92</v>
       </c>
       <c r="I54" s="67" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="J54" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="K54" s="39"/>
+        <v>109</v>
+      </c>
+      <c r="K54" s="38" t="s">
+        <v>59</v>
+      </c>
       <c r="L54" s="72" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B55" s="80" t="s">
         <v>92</v>
@@ -3956,10 +4028,10 @@
         <v>92</v>
       </c>
       <c r="I55" s="67" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="J55" s="101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K55" s="39"/>
       <c r="L55" s="72" t="s">
@@ -3968,13 +4040,13 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="82" t="s">
-        <v>170</v>
-      </c>
-      <c r="C56" s="83" t="s">
-        <v>93</v>
+        <v>203</v>
+      </c>
+      <c r="B56" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="81" t="s">
+        <v>57</v>
       </c>
       <c r="D56" s="78" t="s">
         <v>57</v>
@@ -3992,17 +4064,19 @@
         <v>92</v>
       </c>
       <c r="I56" s="67" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="J56" s="101" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="K56" s="39"/>
-      <c r="L56" s="72"/>
+      <c r="L56" s="72" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B57" s="80" t="s">
         <v>92</v>
@@ -4026,23 +4100,25 @@
         <v>92</v>
       </c>
       <c r="I57" s="67" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="J57" s="101" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="K57" s="39"/>
-      <c r="L57" s="72"/>
+      <c r="L57" s="72" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B58" s="82" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C58" s="83" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="D58" s="78" t="s">
         <v>57</v>
@@ -4050,8 +4126,8 @@
       <c r="E58" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="F58" s="62" t="s">
-        <v>187</v>
+      <c r="F58" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="G58" s="64" t="s">
         <v>92</v>
@@ -4066,19 +4142,17 @@
         <v>57</v>
       </c>
       <c r="K58" s="39"/>
-      <c r="L58" s="72" t="s">
-        <v>78</v>
-      </c>
+      <c r="L58" s="72"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="B59" s="82" t="s">
-        <v>208</v>
+        <v>48</v>
+      </c>
+      <c r="B59" s="80" t="s">
+        <v>92</v>
       </c>
       <c r="C59" s="81" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="D59" s="78" t="s">
         <v>57</v>
@@ -4102,19 +4176,17 @@
         <v>57</v>
       </c>
       <c r="K59" s="39"/>
-      <c r="L59" s="72" t="s">
-        <v>70</v>
-      </c>
+      <c r="L59" s="72"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60" s="82" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="C60" s="83" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="D60" s="78" t="s">
         <v>57</v>
@@ -4122,8 +4194,8 @@
       <c r="E60" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="F60" s="64" t="s">
-        <v>92</v>
+      <c r="F60" s="62" t="s">
+        <v>187</v>
       </c>
       <c r="G60" s="64" t="s">
         <v>92</v>
@@ -4139,18 +4211,18 @@
       </c>
       <c r="K60" s="39"/>
       <c r="L60" s="72" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="72" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="B61" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="83" t="s">
-        <v>63</v>
+        <v>208</v>
+      </c>
+      <c r="C61" s="81" t="s">
+        <v>206</v>
       </c>
       <c r="D61" s="78" t="s">
         <v>57</v>
@@ -4180,7 +4252,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="72" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B62" s="82" t="s">
         <v>63</v>
@@ -4216,7 +4288,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="72" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B63" s="82" t="s">
         <v>63</v>
@@ -4252,7 +4324,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="72" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B64" s="82" t="s">
         <v>63</v>
@@ -4288,13 +4360,13 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" s="80" t="s">
-        <v>186</v>
+        <v>53</v>
+      </c>
+      <c r="B65" s="82" t="s">
+        <v>63</v>
       </c>
       <c r="C65" s="83" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="D65" s="78" t="s">
         <v>57</v>
@@ -4324,13 +4396,13 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="72" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="B66" s="82" t="s">
-        <v>208</v>
-      </c>
-      <c r="C66" s="81" t="s">
-        <v>206</v>
+        <v>63</v>
+      </c>
+      <c r="C66" s="83" t="s">
+        <v>63</v>
       </c>
       <c r="D66" s="78" t="s">
         <v>57</v>
@@ -4358,113 +4430,205 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="73" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A67" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G67" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H67" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J67" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="K67" s="39"/>
+      <c r="L67" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A68" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="D68" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G68" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H68" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I68" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J68" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="K68" s="39"/>
+      <c r="L68" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="86" t="s">
+      <c r="B69" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="87" t="s">
+      <c r="C69" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="D67" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="E67" s="96" t="s">
-        <v>187</v>
-      </c>
-      <c r="F67" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="G67" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="H67" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="I67" s="68" t="s">
+      <c r="D69" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="F69" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="G69" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="H69" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="I69" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="J67" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="K67" s="43"/>
-      <c r="L67" s="73" t="s">
+      <c r="J69" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="K69" s="43"/>
+      <c r="L69" s="73" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L67">
-    <sortCondition ref="A4:A67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L69">
+    <sortCondition ref="A4:A69"/>
   </sortState>
-  <conditionalFormatting sqref="E4:H25 E45:H53 E55:H58 E60:H65 E67:H67 E28:H43">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="ignored">
+  <conditionalFormatting sqref="E4:H6 E47:H55 E57:H60 E62:H67 E69:H69 E29:H31 E33:H45 E8:H26">
+    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L25 A45:L53 A55:L58 A60:L65 A67:L67 A28:L43">
-    <cfRule type="expression" dxfId="24" priority="22">
+  <conditionalFormatting sqref="A4:L6 A47:L55 A57:L60 A62:L67 A69:L69 A29:L31 A33:L45 A8:L26">
+    <cfRule type="expression" dxfId="30" priority="28">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44:H44">
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E44)))</formula>
+  <conditionalFormatting sqref="E46:H46">
+    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:L44">
-    <cfRule type="expression" dxfId="22" priority="16">
+  <conditionalFormatting sqref="A46:L46">
+    <cfRule type="expression" dxfId="28" priority="22">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54:H54">
-    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E54)))</formula>
+  <conditionalFormatting sqref="E56:H56">
+    <cfRule type="containsText" dxfId="27" priority="20" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:L54">
-    <cfRule type="expression" dxfId="20" priority="13">
+  <conditionalFormatting sqref="A56:L56">
+    <cfRule type="expression" dxfId="26" priority="19">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59:H59">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E59)))</formula>
+  <conditionalFormatting sqref="E61:H61">
+    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59:L59">
-    <cfRule type="expression" dxfId="18" priority="10">
+  <conditionalFormatting sqref="A61:L61">
+    <cfRule type="expression" dxfId="24" priority="16">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66:H66">
-    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E66)))</formula>
+  <conditionalFormatting sqref="E68:H68">
+    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:L66">
-    <cfRule type="expression" dxfId="16" priority="7">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:L26">
-    <cfRule type="expression" dxfId="9" priority="4">
+  <conditionalFormatting sqref="A68:L68">
+    <cfRule type="expression" dxfId="22" priority="13">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:H27">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:L27">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="20" priority="10">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:H28">
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:L28">
+    <cfRule type="expression" dxfId="18" priority="7">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:H32">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:L32">
+    <cfRule type="expression" dxfId="16" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:H7">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:L7">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4474,7 +4638,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{1556FE7F-47CC-4BB7-BBF9-3F28C014F253}">
+          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{1556FE7F-47CC-4BB7-BBF9-3F28C014F253}">
             <xm:f>NOT(ISERROR(SEARCH("ignored",B4)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
@@ -4490,11 +4654,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C4 B5:C25 B45:C53 B55:C58 B60:C65 B67:C67 B28:C43</xm:sqref>
+          <xm:sqref>C4 B5:C6 B47:C55 B57:C60 B62:C67 B69:C69 B29:C31 B33:C45 B8:C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{06343100-0CC5-4265-9340-32C52B858DAA}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B44)))</xm:f>
+          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{06343100-0CC5-4265-9340-32C52B858DAA}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B46)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4509,11 +4673,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B44:C44</xm:sqref>
+          <xm:sqref>B46:C46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{F50224FF-908A-4752-B859-31EA26E3A671}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B54)))</xm:f>
+          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{F50224FF-908A-4752-B859-31EA26E3A671}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B56)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4528,11 +4692,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B54:C54</xm:sqref>
+          <xm:sqref>B56:C56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{6E2188D2-4170-4BDA-A538-80F9A47C11A4}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B59)))</xm:f>
+          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{6E2188D2-4170-4BDA-A538-80F9A47C11A4}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B61)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4547,11 +4711,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B59:C59</xm:sqref>
+          <xm:sqref>B61:C61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{FA22152F-42A3-41DE-AE96-08EF0D8FDFF8}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B66)))</xm:f>
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{FA22152F-42A3-41DE-AE96-08EF0D8FDFF8}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B68)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4566,29 +4730,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B66:C66</xm:sqref>
+          <xm:sqref>B68:C68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{8720D447-91FC-4C0D-A4B3-100E6B7FF6BE}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B26)))</xm:f>
-            <xm:f>"ignored"</xm:f>
-            <x14:dxf>
-              <font>
-                <b val="0"/>
-                <i val="0"/>
-                <color theme="0" tint="-0.34998626667073579"/>
-              </font>
-              <fill>
-                <patternFill patternType="none">
-                  <bgColor auto="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B26:C26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{59012C07-666C-4F56-95B0-78771C9B381A}">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{8720D447-91FC-4C0D-A4B3-100E6B7FF6BE}">
             <xm:f>NOT(ISERROR(SEARCH("ignored",B27)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
@@ -4605,6 +4750,63 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>B27:C27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{59012C07-666C-4F56-95B0-78771C9B381A}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B28)))</xm:f>
+            <xm:f>"ignored"</xm:f>
+            <x14:dxf>
+              <font>
+                <b val="0"/>
+                <i val="0"/>
+                <color theme="0" tint="-0.34998626667073579"/>
+              </font>
+              <fill>
+                <patternFill patternType="none">
+                  <bgColor auto="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B28:C28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{C25CAC70-676A-42AB-BA3C-2EEE4802F042}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B32)))</xm:f>
+            <xm:f>"ignored"</xm:f>
+            <x14:dxf>
+              <font>
+                <b val="0"/>
+                <i val="0"/>
+                <color theme="0" tint="-0.34998626667073579"/>
+              </font>
+              <fill>
+                <patternFill patternType="none">
+                  <bgColor auto="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B32:C32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{4383E583-D460-4FA3-BC9D-9C74499F6564}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B7)))</xm:f>
+            <xm:f>"ignored"</xm:f>
+            <x14:dxf>
+              <font>
+                <b val="0"/>
+                <i val="0"/>
+                <color theme="0" tint="-0.34998626667073579"/>
+              </font>
+              <fill>
+                <patternFill patternType="none">
+                  <bgColor auto="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B7:C7</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4973,17 +5175,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4:H10">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L10">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5297,12 +5499,12 @@
     <sortCondition ref="A2:A15"/>
   </sortState>
   <conditionalFormatting sqref="B2:B15">
-    <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="ignored">
+    <cfRule type="notContainsText" dxfId="4" priority="2" operator="notContains" text="ignored">
       <formula>ISERROR(SEARCH("ignored",B2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F15">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/examples/node-red-contrib-sonos-plus 40  Commands.xlsx
+++ b/examples/node-red-contrib-sonos-plus 40  Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hekla\Development\node-red-contrib-sonos-plus\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57E26C4-9506-41FB-BDB0-9511EDD3FDB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14542C6-081B-43EC-BF0F-20344BA52D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{12C28715-236A-4339-BC9B-A8B167B552A0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="217">
   <si>
     <t>group.adjust.volume</t>
   </si>
@@ -538,9 +538,6 @@
     <t>http uri</t>
   </si>
   <si>
-    <t>time to forward</t>
-  </si>
-  <si>
     <t>time until sleep</t>
   </si>
   <si>
@@ -683,6 +680,12 @@
   </si>
   <si>
     <t>csv string of valid actions</t>
+  </si>
+  <si>
+    <t>new time position</t>
+  </si>
+  <si>
+    <t>time to forward&amp;back</t>
   </si>
 </sst>
 </file>
@@ -1453,36 +1456,6 @@
   </cellStyles>
   <dxfs count="32">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
@@ -1611,6 +1584,36 @@
       <font>
         <b val="0"/>
         <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
@@ -2078,8 +2081,8 @@
   </sheetPr>
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2100,7 +2103,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="28.9" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="105" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="106"/>
       <c r="C1" s="106"/>
@@ -2120,14 +2123,14 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="21.4" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A2" s="69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="75"/>
       <c r="D2" s="88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E2" s="89"/>
       <c r="F2" s="89"/>
@@ -2144,7 +2147,7 @@
     </row>
     <row r="3" spans="1:12" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="70" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>66</v>
@@ -2153,7 +2156,7 @@
         <v>95</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>59</v>
@@ -2186,13 +2189,13 @@
         <v>163</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="63" t="s">
         <v>92</v>
@@ -2228,7 +2231,7 @@
         <v>57</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F5" s="64" t="s">
         <v>92</v>
@@ -2264,7 +2267,7 @@
         <v>111</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F6" s="64" t="s">
         <v>92</v>
@@ -2286,31 +2289,31 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="67" t="s">
         <v>214</v>
-      </c>
-      <c r="B7" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="67" t="s">
-        <v>215</v>
       </c>
       <c r="J7" s="101" t="s">
         <v>97</v>
@@ -2334,7 +2337,7 @@
         <v>57</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8" s="64" t="s">
         <v>92</v>
@@ -2370,7 +2373,7 @@
         <v>57</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F9" s="64" t="s">
         <v>92</v>
@@ -2406,7 +2409,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F10" s="64" t="s">
         <v>92</v>
@@ -2442,7 +2445,7 @@
         <v>57</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F11" s="64" t="s">
         <v>92</v>
@@ -2478,7 +2481,7 @@
         <v>57</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F12" s="64" t="s">
         <v>92</v>
@@ -2490,7 +2493,7 @@
         <v>92</v>
       </c>
       <c r="I12" s="67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J12" s="101" t="s">
         <v>97</v>
@@ -2514,7 +2517,7 @@
         <v>57</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F13" s="64" t="s">
         <v>92</v>
@@ -2550,7 +2553,7 @@
         <v>57</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F14" s="64" t="s">
         <v>92</v>
@@ -2562,7 +2565,7 @@
         <v>92</v>
       </c>
       <c r="I14" s="67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J14" s="101" t="s">
         <v>96</v>
@@ -2586,7 +2589,7 @@
         <v>57</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>92</v>
@@ -2622,7 +2625,7 @@
         <v>57</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F16" s="64" t="s">
         <v>92</v>
@@ -2658,7 +2661,7 @@
         <v>57</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F17" s="64" t="s">
         <v>92</v>
@@ -2694,13 +2697,13 @@
         <v>57</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F18" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G18" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H18" s="81" t="s">
         <v>92</v>
@@ -2730,16 +2733,16 @@
         <v>57</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F19" s="64" t="s">
         <v>92</v>
       </c>
       <c r="G19" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H19" s="93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I19" s="67" t="s">
         <v>85</v>
@@ -2766,13 +2769,13 @@
         <v>158</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H20" s="81" t="s">
         <v>92</v>
@@ -2802,13 +2805,13 @@
         <v>57</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F21" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G21" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H21" s="81" t="s">
         <v>92</v>
@@ -2829,7 +2832,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C22" s="81" t="s">
         <v>96</v>
@@ -2838,7 +2841,7 @@
         <v>57</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F22" s="64" t="s">
         <v>92</v>
@@ -2874,13 +2877,13 @@
         <v>57</v>
       </c>
       <c r="E23" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F23" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G23" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H23" s="81" t="s">
         <v>92</v>
@@ -2901,7 +2904,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C24" s="83" t="s">
         <v>148</v>
@@ -2910,13 +2913,13 @@
         <v>57</v>
       </c>
       <c r="E24" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G24" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H24" s="81" t="s">
         <v>92</v>
@@ -2946,13 +2949,13 @@
         <v>57</v>
       </c>
       <c r="E25" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F25" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G25" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H25" s="81" t="s">
         <v>92</v>
@@ -2982,7 +2985,7 @@
         <v>57</v>
       </c>
       <c r="E26" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F26" s="64" t="s">
         <v>92</v>
@@ -3006,7 +3009,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="72" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B27" s="80" t="s">
         <v>165</v>
@@ -3018,7 +3021,7 @@
         <v>57</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F27" s="64" t="s">
         <v>92</v>
@@ -3037,15 +3040,15 @@
       </c>
       <c r="K27" s="39"/>
       <c r="L27" s="72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="72" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B28" s="80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C28" s="81" t="s">
         <v>165</v>
@@ -3054,7 +3057,7 @@
         <v>57</v>
       </c>
       <c r="E28" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F28" s="64" t="s">
         <v>92</v>
@@ -3073,7 +3076,7 @@
       </c>
       <c r="K28" s="39"/>
       <c r="L28" s="72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
@@ -3081,7 +3084,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C29" s="83" t="s">
         <v>148</v>
@@ -3090,7 +3093,7 @@
         <v>159</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F29" s="64" t="s">
         <v>92</v>
@@ -3117,7 +3120,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="82" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C30" s="83" t="s">
         <v>65</v>
@@ -3126,7 +3129,7 @@
         <v>57</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F30" s="64" t="s">
         <v>92</v>
@@ -3153,7 +3156,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="82" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="C31" s="83" t="s">
         <v>64</v>
@@ -3162,7 +3165,7 @@
         <v>57</v>
       </c>
       <c r="E31" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F31" s="64" t="s">
         <v>92</v>
@@ -3186,19 +3189,19 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="82" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="B32" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" s="81" t="s">
-        <v>213</v>
-      </c>
       <c r="D32" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E32" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F32" s="64" t="s">
         <v>92</v>
@@ -3234,7 +3237,7 @@
         <v>57</v>
       </c>
       <c r="E33" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F33" s="64" t="s">
         <v>92</v>
@@ -3270,7 +3273,7 @@
         <v>57</v>
       </c>
       <c r="E34" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F34" s="64" t="s">
         <v>92</v>
@@ -3297,16 +3300,16 @@
         <v>27</v>
       </c>
       <c r="B35" s="82" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" s="83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D35" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E35" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F35" s="64" t="s">
         <v>92</v>
@@ -3333,7 +3336,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="82" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C36" s="83" t="s">
         <v>64</v>
@@ -3342,7 +3345,7 @@
         <v>57</v>
       </c>
       <c r="E36" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F36" s="64" t="s">
         <v>92</v>
@@ -3378,7 +3381,7 @@
         <v>57</v>
       </c>
       <c r="E37" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F37" s="64" t="s">
         <v>92</v>
@@ -3414,7 +3417,7 @@
         <v>57</v>
       </c>
       <c r="E38" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F38" s="64" t="s">
         <v>92</v>
@@ -3441,13 +3444,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C39" s="83" t="s">
         <v>93</v>
       </c>
       <c r="D39" s="94" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E39" s="64" t="s">
         <v>92</v>
@@ -3509,13 +3512,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="83" t="s">
         <v>65</v>
       </c>
       <c r="D41" s="78" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E41" s="45" t="s">
         <v>92</v>
@@ -3543,7 +3546,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C42" s="83" t="s">
         <v>93</v>
@@ -3577,7 +3580,7 @@
         <v>94</v>
       </c>
       <c r="B43" s="80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C43" s="83" t="s">
         <v>93</v>
@@ -3620,10 +3623,10 @@
         <v>158</v>
       </c>
       <c r="E44" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F44" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G44" s="64" t="s">
         <v>57</v>
@@ -3648,13 +3651,13 @@
         <v>163</v>
       </c>
       <c r="C45" s="83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D45" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E45" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F45" s="64" t="s">
         <v>92</v>
@@ -3678,34 +3681,34 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="F46" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="B46" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="E46" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="F46" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="G46" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="H46" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="I46" s="67" t="s">
+      <c r="J46" s="101" t="s">
         <v>201</v>
-      </c>
-      <c r="J46" s="101" t="s">
-        <v>202</v>
       </c>
       <c r="K46" s="39"/>
       <c r="L46" s="72" t="s">
@@ -3726,7 +3729,7 @@
         <v>57</v>
       </c>
       <c r="E47" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F47" s="64" t="s">
         <v>92</v>
@@ -3762,7 +3765,7 @@
         <v>57</v>
       </c>
       <c r="E48" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F48" s="64" t="s">
         <v>92</v>
@@ -3798,7 +3801,7 @@
         <v>57</v>
       </c>
       <c r="E49" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F49" s="64" t="s">
         <v>92</v>
@@ -3834,7 +3837,7 @@
         <v>57</v>
       </c>
       <c r="E50" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F50" s="64" t="s">
         <v>92</v>
@@ -3870,7 +3873,7 @@
         <v>57</v>
       </c>
       <c r="E51" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F51" s="64" t="s">
         <v>92</v>
@@ -3906,7 +3909,7 @@
         <v>57</v>
       </c>
       <c r="E52" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F52" s="64" t="s">
         <v>92</v>
@@ -3942,7 +3945,7 @@
         <v>57</v>
       </c>
       <c r="E53" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F53" s="64" t="s">
         <v>92</v>
@@ -3978,7 +3981,7 @@
         <v>57</v>
       </c>
       <c r="E54" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F54" s="64" t="s">
         <v>92</v>
@@ -4016,7 +4019,7 @@
         <v>57</v>
       </c>
       <c r="E55" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F55" s="64" t="s">
         <v>92</v>
@@ -4040,34 +4043,34 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="F56" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I56" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="B56" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="E56" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="F56" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="G56" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="H56" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="I56" s="67" t="s">
-        <v>204</v>
-      </c>
       <c r="J56" s="101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K56" s="39"/>
       <c r="L56" s="72" t="s">
@@ -4088,7 +4091,7 @@
         <v>57</v>
       </c>
       <c r="E57" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F57" s="64" t="s">
         <v>92</v>
@@ -4115,7 +4118,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C58" s="83" t="s">
         <v>93</v>
@@ -4124,7 +4127,7 @@
         <v>57</v>
       </c>
       <c r="E58" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F58" s="64" t="s">
         <v>92</v>
@@ -4158,7 +4161,7 @@
         <v>57</v>
       </c>
       <c r="E59" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F59" s="64" t="s">
         <v>92</v>
@@ -4183,7 +4186,7 @@
         <v>49</v>
       </c>
       <c r="B60" s="82" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C60" s="83" t="s">
         <v>165</v>
@@ -4192,10 +4195,10 @@
         <v>57</v>
       </c>
       <c r="E60" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F60" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G60" s="64" t="s">
         <v>92</v>
@@ -4216,19 +4219,19 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="B61" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="C61" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="B61" s="82" t="s">
-        <v>208</v>
-      </c>
-      <c r="C61" s="81" t="s">
-        <v>206</v>
-      </c>
       <c r="D61" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E61" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F61" s="64" t="s">
         <v>92</v>
@@ -4264,7 +4267,7 @@
         <v>57</v>
       </c>
       <c r="E62" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F62" s="64" t="s">
         <v>92</v>
@@ -4300,7 +4303,7 @@
         <v>57</v>
       </c>
       <c r="E63" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F63" s="64" t="s">
         <v>92</v>
@@ -4336,7 +4339,7 @@
         <v>57</v>
       </c>
       <c r="E64" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F64" s="64" t="s">
         <v>92</v>
@@ -4372,7 +4375,7 @@
         <v>57</v>
       </c>
       <c r="E65" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F65" s="64" t="s">
         <v>92</v>
@@ -4408,7 +4411,7 @@
         <v>57</v>
       </c>
       <c r="E66" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F66" s="64" t="s">
         <v>92</v>
@@ -4435,16 +4438,16 @@
         <v>55</v>
       </c>
       <c r="B67" s="80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C67" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D67" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E67" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F67" s="64" t="s">
         <v>92</v>
@@ -4468,19 +4471,19 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="B68" s="82" t="s">
-        <v>208</v>
-      </c>
       <c r="C68" s="81" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E68" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F68" s="64" t="s">
         <v>92</v>
@@ -4507,16 +4510,16 @@
         <v>56</v>
       </c>
       <c r="B69" s="86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C69" s="87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="95" t="s">
         <v>57</v>
       </c>
       <c r="E69" s="96" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F69" s="97" t="s">
         <v>92</v>
@@ -4623,12 +4626,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:H7">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:L7">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4843,7 +4846,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.85">
       <c r="A1" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -4863,10 +4866,10 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="21.4" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A2" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="53" t="s">
@@ -4887,7 +4890,7 @@
     </row>
     <row r="3" spans="1:12" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>66</v>
@@ -4896,7 +4899,7 @@
         <v>95</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>59</v>
@@ -4926,13 +4929,13 @@
         <v>118</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>92</v>
@@ -4998,7 +5001,7 @@
         <v>116</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>65</v>
@@ -5034,7 +5037,7 @@
         <v>114</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>65</v>
@@ -5076,7 +5079,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>92</v>
@@ -5106,7 +5109,7 @@
         <v>113</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>65</v>
@@ -5142,7 +5145,7 @@
         <v>112</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>65</v>
@@ -5175,17 +5178,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4:H10">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L10">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5328,7 +5331,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>97</v>
@@ -5392,7 +5395,7 @@
         <v>128</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -5424,7 +5427,7 @@
         <v>97</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>57</v>
@@ -5499,12 +5502,12 @@
     <sortCondition ref="A2:A15"/>
   </sortState>
   <conditionalFormatting sqref="B2:B15">
-    <cfRule type="notContainsText" dxfId="4" priority="2" operator="notContains" text="ignored">
+    <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="ignored">
       <formula>ISERROR(SEARCH("ignored",B2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F15">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/examples/node-red-contrib-sonos-plus 40  Commands.xlsx
+++ b/examples/node-red-contrib-sonos-plus 40  Commands.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hekla\Development\node-red-contrib-sonos-plus\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\node-red-contrib-sonos-plus\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14542C6-081B-43EC-BF0F-20344BA52D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF80B9E-471A-4B32-BCDF-C246EA947C9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{12C28715-236A-4339-BC9B-A8B167B552A0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="223">
   <si>
     <t>group.adjust.volume</t>
   </si>
@@ -686,6 +686,24 @@
   </si>
   <si>
     <t>time to forward&amp;back</t>
+  </si>
+  <si>
+    <t>group.set.volume</t>
+  </si>
+  <si>
+    <t>new group volume</t>
+  </si>
+  <si>
+    <t>act on group - sets new group volume. Work together with group.create.volumesnap</t>
+  </si>
+  <si>
+    <t>group.create.volumesnap</t>
+  </si>
+  <si>
+    <t>creates a snapshot of the volumes - used for group.adjust.volume, group.set.volume</t>
+  </si>
+  <si>
+    <t>is a build in group command. Works together with group.create.snapvolume</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1472,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="35">
     <dxf>
       <fill>
         <patternFill>
@@ -1482,6 +1500,36 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -2079,10 +2127,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2214,7 +2262,7 @@
       </c>
       <c r="K4" s="41"/>
       <c r="L4" s="72" t="s">
-        <v>72</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -2289,7 +2337,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="72" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B7" s="80" t="s">
         <v>92</v>
@@ -2313,19 +2361,19 @@
         <v>92</v>
       </c>
       <c r="I7" s="67" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="J7" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="41"/>
+        <v>57</v>
+      </c>
+      <c r="K7" s="39"/>
       <c r="L7" s="72" t="s">
-        <v>71</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="72" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="B8" s="80" t="s">
         <v>92</v>
@@ -2349,7 +2397,7 @@
         <v>92</v>
       </c>
       <c r="I8" s="67" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="J8" s="101" t="s">
         <v>97</v>
@@ -2361,7 +2409,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="80" t="s">
         <v>92</v>
@@ -2392,12 +2440,12 @@
       </c>
       <c r="K9" s="41"/>
       <c r="L9" s="72" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>92</v>
@@ -2421,19 +2469,19 @@
         <v>92</v>
       </c>
       <c r="I10" s="67" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J10" s="101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="72" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>92</v>
@@ -2457,19 +2505,19 @@
         <v>92</v>
       </c>
       <c r="I11" s="67" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J11" s="101" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K11" s="41"/>
       <c r="L11" s="72" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="80" t="s">
         <v>92</v>
@@ -2493,19 +2541,19 @@
         <v>92</v>
       </c>
       <c r="I12" s="67" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="J12" s="101" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K12" s="41"/>
       <c r="L12" s="72" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="80" t="s">
         <v>92</v>
@@ -2529,19 +2577,19 @@
         <v>92</v>
       </c>
       <c r="I13" s="67" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="J13" s="101" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K13" s="41"/>
       <c r="L13" s="72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>92</v>
@@ -2565,19 +2613,19 @@
         <v>92</v>
       </c>
       <c r="I14" s="67" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="J14" s="101" t="s">
         <v>96</v>
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="72" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="80" t="s">
         <v>92</v>
@@ -2601,19 +2649,19 @@
         <v>92</v>
       </c>
       <c r="I15" s="67" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="J15" s="101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="72" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="80" t="s">
         <v>92</v>
@@ -2637,19 +2685,19 @@
         <v>92</v>
       </c>
       <c r="I16" s="67" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J16" s="101" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="K16" s="41"/>
       <c r="L16" s="72" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="80" t="s">
         <v>92</v>
@@ -2680,12 +2728,12 @@
       </c>
       <c r="K17" s="41"/>
       <c r="L17" s="72" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="80" t="s">
         <v>92</v>
@@ -2699,11 +2747,11 @@
       <c r="E18" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F18" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="G18" s="62" t="s">
-        <v>186</v>
+      <c r="F18" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="H18" s="81" t="s">
         <v>92</v>
@@ -2721,28 +2769,28 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="C19" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F19" s="64" t="s">
-        <v>92</v>
+      <c r="F19" s="62" t="s">
+        <v>186</v>
       </c>
       <c r="G19" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="H19" s="93" t="s">
-        <v>186</v>
+      <c r="H19" s="81" t="s">
+        <v>92</v>
       </c>
       <c r="I19" s="67" t="s">
         <v>85</v>
@@ -2757,28 +2805,28 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="83" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="78" t="s">
-        <v>158</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>57</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F20" s="62" t="s">
-        <v>186</v>
+      <c r="F20" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="G20" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="H20" s="81" t="s">
-        <v>92</v>
+      <c r="H20" s="93" t="s">
+        <v>186</v>
       </c>
       <c r="I20" s="67" t="s">
         <v>85</v>
@@ -2786,23 +2834,23 @@
       <c r="J20" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="39"/>
+      <c r="K20" s="41"/>
       <c r="L20" s="72" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="81" t="s">
-        <v>57</v>
+        <v>15</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="83" t="s">
+        <v>165</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>186</v>
@@ -2829,13 +2877,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="C22" s="81" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D22" s="78" t="s">
         <v>57</v>
@@ -2843,11 +2891,11 @@
       <c r="E22" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F22" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="64" t="s">
-        <v>92</v>
+      <c r="F22" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>186</v>
       </c>
       <c r="H22" s="81" t="s">
         <v>92</v>
@@ -2865,13 +2913,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="82" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="83" t="s">
-        <v>165</v>
+        <v>17</v>
+      </c>
+      <c r="B23" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>96</v>
       </c>
       <c r="D23" s="78" t="s">
         <v>57</v>
@@ -2879,11 +2927,11 @@
       <c r="E23" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F23" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="G23" s="62" t="s">
-        <v>186</v>
+      <c r="F23" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="H23" s="81" t="s">
         <v>92</v>
@@ -2901,13 +2949,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="82" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C24" s="83" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="D24" s="78" t="s">
         <v>57</v>
@@ -2937,13 +2985,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="82" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="C25" s="83" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="D25" s="78" t="s">
         <v>57</v>
@@ -2973,13 +3021,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="81" t="s">
-        <v>57</v>
+        <v>20</v>
+      </c>
+      <c r="B26" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="83" t="s">
+        <v>62</v>
       </c>
       <c r="D26" s="78" t="s">
         <v>57</v>
@@ -2987,11 +3035,11 @@
       <c r="E26" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="64" t="s">
-        <v>92</v>
+      <c r="F26" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="62" t="s">
+        <v>186</v>
       </c>
       <c r="H26" s="81" t="s">
         <v>92</v>
@@ -3004,18 +3052,18 @@
       </c>
       <c r="K26" s="39"/>
       <c r="L26" s="72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="72" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="D27" s="78" t="s">
         <v>57</v>
@@ -3040,7 +3088,7 @@
       </c>
       <c r="K27" s="39"/>
       <c r="L27" s="72" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
@@ -3048,7 +3096,7 @@
         <v>208</v>
       </c>
       <c r="B28" s="80" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C28" s="81" t="s">
         <v>165</v>
@@ -3081,16 +3129,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="C29" s="83" t="s">
-        <v>148</v>
+        <v>208</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="81" t="s">
+        <v>165</v>
       </c>
       <c r="D29" s="78" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="E29" s="62" t="s">
         <v>186</v>
@@ -3112,21 +3160,21 @@
       </c>
       <c r="K29" s="39"/>
       <c r="L29" s="72" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="82" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C30" s="83" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="D30" s="78" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="E30" s="62" t="s">
         <v>186</v>
@@ -3148,18 +3196,18 @@
       </c>
       <c r="K30" s="39"/>
       <c r="L30" s="72" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="82" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="C31" s="83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31" s="78" t="s">
         <v>57</v>
@@ -3184,18 +3232,18 @@
       </c>
       <c r="K31" s="39"/>
       <c r="L31" s="72" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="72" t="s">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="B32" s="82" t="s">
-        <v>216</v>
-      </c>
-      <c r="C32" s="81" t="s">
-        <v>212</v>
+        <v>215</v>
+      </c>
+      <c r="C32" s="83" t="s">
+        <v>64</v>
       </c>
       <c r="D32" s="78" t="s">
         <v>57</v>
@@ -3225,13 +3273,13 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="72" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="B33" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="83" t="s">
-        <v>63</v>
+        <v>216</v>
+      </c>
+      <c r="C33" s="81" t="s">
+        <v>212</v>
       </c>
       <c r="D33" s="78" t="s">
         <v>57</v>
@@ -3256,12 +3304,12 @@
       </c>
       <c r="K33" s="39"/>
       <c r="L33" s="72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="82" t="s">
         <v>63</v>
@@ -3292,18 +3340,18 @@
       </c>
       <c r="K34" s="39"/>
       <c r="L34" s="72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="82" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="C35" s="83" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="D35" s="78" t="s">
         <v>57</v>
@@ -3328,18 +3376,18 @@
       </c>
       <c r="K35" s="39"/>
       <c r="L35" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="82" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C36" s="83" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="D36" s="78" t="s">
         <v>57</v>
@@ -3364,18 +3412,18 @@
       </c>
       <c r="K36" s="39"/>
       <c r="L36" s="72" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="84" t="s">
-        <v>57</v>
+        <v>28</v>
+      </c>
+      <c r="B37" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="83" t="s">
+        <v>64</v>
       </c>
       <c r="D37" s="78" t="s">
         <v>57</v>
@@ -3400,18 +3448,18 @@
       </c>
       <c r="K37" s="39"/>
       <c r="L37" s="72" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="84" t="s">
-        <v>57</v>
+        <v>217</v>
+      </c>
+      <c r="B38" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="83" t="s">
+        <v>197</v>
       </c>
       <c r="D38" s="78" t="s">
         <v>57</v>
@@ -3436,24 +3484,24 @@
       </c>
       <c r="K38" s="39"/>
       <c r="L38" s="72" t="s">
-        <v>67</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B39" s="80" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="E39" s="64" t="s">
-        <v>92</v>
+        <v>92</v>
+      </c>
+      <c r="C39" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="62" t="s">
+        <v>186</v>
       </c>
       <c r="F39" s="64" t="s">
         <v>92</v>
@@ -3471,23 +3519,25 @@
         <v>57</v>
       </c>
       <c r="K39" s="39"/>
-      <c r="L39" s="72"/>
+      <c r="L39" s="72" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B40" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="81" t="s">
+      <c r="C40" s="84" t="s">
         <v>57</v>
       </c>
       <c r="D40" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="64" t="s">
-        <v>92</v>
+      <c r="E40" s="62" t="s">
+        <v>186</v>
       </c>
       <c r="F40" s="64" t="s">
         <v>92</v>
@@ -3499,28 +3549,30 @@
         <v>92</v>
       </c>
       <c r="I40" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J40" s="101" t="s">
-        <v>101</v>
-      </c>
-      <c r="K40" s="41"/>
-      <c r="L40" s="72"/>
+        <v>57</v>
+      </c>
+      <c r="K40" s="39"/>
+      <c r="L40" s="72" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="85" t="s">
-        <v>173</v>
+        <v>31</v>
+      </c>
+      <c r="B41" s="80" t="s">
+        <v>168</v>
       </c>
       <c r="C41" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="E41" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="E41" s="64" t="s">
         <v>92</v>
       </c>
       <c r="F41" s="64" t="s">
@@ -3543,13 +3595,13 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B42" s="80" t="s">
-        <v>168</v>
-      </c>
-      <c r="C42" s="83" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="C42" s="81" t="s">
+        <v>57</v>
       </c>
       <c r="D42" s="78" t="s">
         <v>57</v>
@@ -3567,28 +3619,28 @@
         <v>92</v>
       </c>
       <c r="I42" s="67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J42" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="K42" s="39"/>
+        <v>101</v>
+      </c>
+      <c r="K42" s="41"/>
       <c r="L42" s="72"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="80" t="s">
-        <v>194</v>
+        <v>33</v>
+      </c>
+      <c r="B43" s="85" t="s">
+        <v>173</v>
       </c>
       <c r="C43" s="83" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D43" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="45" t="s">
         <v>92</v>
       </c>
       <c r="F43" s="64" t="s">
@@ -3601,38 +3653,38 @@
         <v>92</v>
       </c>
       <c r="I43" s="67" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J43" s="101" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="K43" s="39"/>
       <c r="L43" s="72"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="82" t="s">
-        <v>164</v>
+        <v>34</v>
+      </c>
+      <c r="B44" s="80" t="s">
+        <v>168</v>
       </c>
       <c r="C44" s="83" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="D44" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="E44" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="F44" s="62" t="s">
-        <v>186</v>
+        <v>57</v>
+      </c>
+      <c r="E44" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="G44" s="64" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="H44" s="81" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="I44" s="67" t="s">
         <v>85</v>
@@ -3645,19 +3697,19 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="82" t="s">
-        <v>163</v>
+        <v>94</v>
+      </c>
+      <c r="B45" s="80" t="s">
+        <v>194</v>
       </c>
       <c r="C45" s="83" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="D45" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="62" t="s">
-        <v>186</v>
+      <c r="E45" s="59" t="s">
+        <v>92</v>
       </c>
       <c r="F45" s="64" t="s">
         <v>92</v>
@@ -3669,61 +3721,57 @@
         <v>92</v>
       </c>
       <c r="I45" s="67" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J45" s="101" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K45" s="39"/>
-      <c r="L45" s="72" t="s">
-        <v>70</v>
-      </c>
+      <c r="L45" s="72"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="72" t="s">
-        <v>199</v>
-      </c>
-      <c r="B46" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="81" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="B46" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="83" t="s">
+        <v>165</v>
       </c>
       <c r="D46" s="78" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="E46" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F46" s="64" t="s">
-        <v>92</v>
+      <c r="F46" s="62" t="s">
+        <v>186</v>
       </c>
       <c r="G46" s="64" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="H46" s="81" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="I46" s="67" t="s">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="J46" s="101" t="s">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="K46" s="39"/>
-      <c r="L46" s="72" t="s">
-        <v>70</v>
-      </c>
+      <c r="L46" s="72"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="81" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="B47" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="83" t="s">
+        <v>197</v>
       </c>
       <c r="D47" s="78" t="s">
         <v>57</v>
@@ -3741,10 +3789,10 @@
         <v>92</v>
       </c>
       <c r="I47" s="67" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="J47" s="101" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="K47" s="39"/>
       <c r="L47" s="72" t="s">
@@ -3753,7 +3801,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="72" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="B48" s="80" t="s">
         <v>92</v>
@@ -3777,10 +3825,10 @@
         <v>92</v>
       </c>
       <c r="I48" s="67" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="J48" s="101" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="K48" s="39"/>
       <c r="L48" s="72" t="s">
@@ -3789,7 +3837,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B49" s="80" t="s">
         <v>92</v>
@@ -3825,7 +3873,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B50" s="80" t="s">
         <v>92</v>
@@ -3861,7 +3909,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B51" s="80" t="s">
         <v>92</v>
@@ -3897,7 +3945,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B52" s="80" t="s">
         <v>92</v>
@@ -3921,10 +3969,10 @@
         <v>92</v>
       </c>
       <c r="I52" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J52" s="101" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K52" s="39"/>
       <c r="L52" s="72" t="s">
@@ -3933,7 +3981,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B53" s="80" t="s">
         <v>92</v>
@@ -3957,10 +4005,10 @@
         <v>92</v>
       </c>
       <c r="I53" s="67" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="J53" s="101" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K53" s="39"/>
       <c r="L53" s="72" t="s">
@@ -3969,7 +4017,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="72" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B54" s="80" t="s">
         <v>92</v>
@@ -3993,21 +4041,19 @@
         <v>92</v>
       </c>
       <c r="I54" s="67" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J54" s="101" t="s">
-        <v>109</v>
-      </c>
-      <c r="K54" s="38" t="s">
-        <v>59</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K54" s="39"/>
       <c r="L54" s="72" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B55" s="80" t="s">
         <v>92</v>
@@ -4031,10 +4077,10 @@
         <v>92</v>
       </c>
       <c r="I55" s="67" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="J55" s="101" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K55" s="39"/>
       <c r="L55" s="72" t="s">
@@ -4043,7 +4089,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="72" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="B56" s="80" t="s">
         <v>92</v>
@@ -4067,19 +4113,21 @@
         <v>92</v>
       </c>
       <c r="I56" s="67" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="J56" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="K56" s="39"/>
+        <v>109</v>
+      </c>
+      <c r="K56" s="38" t="s">
+        <v>59</v>
+      </c>
       <c r="L56" s="72" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" s="80" t="s">
         <v>92</v>
@@ -4103,10 +4151,10 @@
         <v>92</v>
       </c>
       <c r="I57" s="67" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="J57" s="101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K57" s="39"/>
       <c r="L57" s="72" t="s">
@@ -4115,13 +4163,13 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="82" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="83" t="s">
-        <v>93</v>
+        <v>202</v>
+      </c>
+      <c r="B58" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="81" t="s">
+        <v>57</v>
       </c>
       <c r="D58" s="78" t="s">
         <v>57</v>
@@ -4139,17 +4187,19 @@
         <v>92</v>
       </c>
       <c r="I58" s="67" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="J58" s="101" t="s">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="K58" s="39"/>
-      <c r="L58" s="72"/>
+      <c r="L58" s="72" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B59" s="80" t="s">
         <v>92</v>
@@ -4173,23 +4223,25 @@
         <v>92</v>
       </c>
       <c r="I59" s="67" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="J59" s="101" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="K59" s="39"/>
-      <c r="L59" s="72"/>
+      <c r="L59" s="72" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B60" s="82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C60" s="83" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="D60" s="78" t="s">
         <v>57</v>
@@ -4197,8 +4249,8 @@
       <c r="E60" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F60" s="62" t="s">
-        <v>186</v>
+      <c r="F60" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="G60" s="64" t="s">
         <v>92</v>
@@ -4213,19 +4265,17 @@
         <v>57</v>
       </c>
       <c r="K60" s="39"/>
-      <c r="L60" s="72" t="s">
-        <v>78</v>
-      </c>
+      <c r="L60" s="72"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="72" t="s">
-        <v>204</v>
-      </c>
-      <c r="B61" s="82" t="s">
-        <v>207</v>
+        <v>48</v>
+      </c>
+      <c r="B61" s="80" t="s">
+        <v>92</v>
       </c>
       <c r="C61" s="81" t="s">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c r="D61" s="78" t="s">
         <v>57</v>
@@ -4249,19 +4299,17 @@
         <v>57</v>
       </c>
       <c r="K61" s="39"/>
-      <c r="L61" s="72" t="s">
-        <v>70</v>
-      </c>
+      <c r="L61" s="72"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62" s="82" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="C62" s="83" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="D62" s="78" t="s">
         <v>57</v>
@@ -4269,8 +4317,8 @@
       <c r="E62" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F62" s="64" t="s">
-        <v>92</v>
+      <c r="F62" s="62" t="s">
+        <v>186</v>
       </c>
       <c r="G62" s="64" t="s">
         <v>92</v>
@@ -4286,18 +4334,18 @@
       </c>
       <c r="K62" s="39"/>
       <c r="L62" s="72" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="72" t="s">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="B63" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="83" t="s">
-        <v>63</v>
+        <v>207</v>
+      </c>
+      <c r="C63" s="81" t="s">
+        <v>205</v>
       </c>
       <c r="D63" s="78" t="s">
         <v>57</v>
@@ -4327,7 +4375,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="72" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B64" s="82" t="s">
         <v>63</v>
@@ -4363,7 +4411,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="72" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B65" s="82" t="s">
         <v>63</v>
@@ -4399,7 +4447,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="72" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B66" s="82" t="s">
         <v>63</v>
@@ -4435,13 +4483,13 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" s="80" t="s">
-        <v>185</v>
+        <v>53</v>
+      </c>
+      <c r="B67" s="82" t="s">
+        <v>63</v>
       </c>
       <c r="C67" s="83" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="D67" s="78" t="s">
         <v>57</v>
@@ -4471,13 +4519,13 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="72" t="s">
-        <v>206</v>
+        <v>54</v>
       </c>
       <c r="B68" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="C68" s="81" t="s">
-        <v>205</v>
+        <v>63</v>
+      </c>
+      <c r="C68" s="83" t="s">
+        <v>63</v>
       </c>
       <c r="D68" s="78" t="s">
         <v>57</v>
@@ -4505,133 +4553,215 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="73" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A69" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="F69" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G69" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H69" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I69" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J69" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="K69" s="39"/>
+      <c r="L69" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A70" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="F70" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G70" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H70" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I70" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J70" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="K70" s="39"/>
+      <c r="L70" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="86" t="s">
+      <c r="B71" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="C69" s="87" t="s">
+      <c r="C71" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="D69" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="E69" s="96" t="s">
-        <v>186</v>
-      </c>
-      <c r="F69" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="G69" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="H69" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="I69" s="68" t="s">
+      <c r="D71" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F71" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="G71" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="I71" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="J69" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="K69" s="43"/>
-      <c r="L69" s="73" t="s">
+      <c r="J71" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="K71" s="43"/>
+      <c r="L71" s="73" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L69">
-    <sortCondition ref="A4:A69"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L71">
+    <sortCondition ref="A4:A71"/>
   </sortState>
-  <conditionalFormatting sqref="E4:H6 E47:H55 E57:H60 E62:H67 E69:H69 E29:H31 E33:H45 E8:H26">
-    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="ignored">
+  <conditionalFormatting sqref="E4:H6 E49:H57 E59:H62 E64:H69 E71:H71 E30:H32 E9:H27 E34:H47">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L6 A47:L55 A57:L60 A62:L67 A69:L69 A29:L31 A33:L45 A8:L26">
-    <cfRule type="expression" dxfId="30" priority="28">
+  <conditionalFormatting sqref="A4:L6 A49:L57 A59:L62 A64:L69 A71:L71 A30:L32 A9:L27 A34:L47">
+    <cfRule type="expression" dxfId="33" priority="31">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46:H46">
-    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E46)))</formula>
+  <conditionalFormatting sqref="E48:H48">
+    <cfRule type="containsText" dxfId="32" priority="26" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:L46">
-    <cfRule type="expression" dxfId="28" priority="22">
+  <conditionalFormatting sqref="A48:L48">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:H56">
-    <cfRule type="containsText" dxfId="27" priority="20" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E56)))</formula>
+  <conditionalFormatting sqref="E58:H58">
+    <cfRule type="containsText" dxfId="30" priority="23" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:L56">
-    <cfRule type="expression" dxfId="26" priority="19">
+  <conditionalFormatting sqref="A58:L58">
+    <cfRule type="expression" dxfId="29" priority="22">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E61:H61">
-    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E61)))</formula>
+  <conditionalFormatting sqref="E63:H63">
+    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E63)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:L61">
-    <cfRule type="expression" dxfId="24" priority="16">
+  <conditionalFormatting sqref="A63:L63">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68:H68">
-    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E68)))</formula>
+  <conditionalFormatting sqref="E70:H70">
+    <cfRule type="containsText" dxfId="26" priority="17" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:L68">
-    <cfRule type="expression" dxfId="22" priority="13">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:H27">
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:L27">
-    <cfRule type="expression" dxfId="20" priority="10">
+  <conditionalFormatting sqref="A70:L70">
+    <cfRule type="expression" dxfId="25" priority="16">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:H28">
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:L28">
-    <cfRule type="expression" dxfId="18" priority="7">
+    <cfRule type="expression" dxfId="23" priority="13">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32:H32">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E32)))</formula>
+  <conditionalFormatting sqref="E29:H29">
+    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:L32">
-    <cfRule type="expression" dxfId="16" priority="4">
+  <conditionalFormatting sqref="A29:L29">
+    <cfRule type="expression" dxfId="21" priority="10">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:H33">
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:L33">
+    <cfRule type="expression" dxfId="19" priority="7">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:H8">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:L8">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:H7">
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:L7">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4641,7 +4771,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{1556FE7F-47CC-4BB7-BBF9-3F28C014F253}">
+          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{1556FE7F-47CC-4BB7-BBF9-3F28C014F253}">
             <xm:f>NOT(ISERROR(SEARCH("ignored",B4)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
@@ -4657,11 +4787,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C4 B5:C6 B47:C55 B57:C60 B62:C67 B69:C69 B29:C31 B33:C45 B8:C26</xm:sqref>
+          <xm:sqref>C4 B5:C6 B49:C57 B59:C62 B64:C69 B71:C71 B30:C32 B34:C47 B9:C27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{06343100-0CC5-4265-9340-32C52B858DAA}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B46)))</xm:f>
+          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{06343100-0CC5-4265-9340-32C52B858DAA}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B48)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4676,11 +4806,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B46:C46</xm:sqref>
+          <xm:sqref>B48:C48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{F50224FF-908A-4752-B859-31EA26E3A671}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B56)))</xm:f>
+          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{F50224FF-908A-4752-B859-31EA26E3A671}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B58)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4695,11 +4825,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B56:C56</xm:sqref>
+          <xm:sqref>B58:C58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{6E2188D2-4170-4BDA-A538-80F9A47C11A4}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B61)))</xm:f>
+          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{6E2188D2-4170-4BDA-A538-80F9A47C11A4}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B63)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4714,11 +4844,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B61:C61</xm:sqref>
+          <xm:sqref>B63:C63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{FA22152F-42A3-41DE-AE96-08EF0D8FDFF8}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B68)))</xm:f>
+          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{FA22152F-42A3-41DE-AE96-08EF0D8FDFF8}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B70)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4733,29 +4863,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B68:C68</xm:sqref>
+          <xm:sqref>B70:C70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{8720D447-91FC-4C0D-A4B3-100E6B7FF6BE}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B27)))</xm:f>
-            <xm:f>"ignored"</xm:f>
-            <x14:dxf>
-              <font>
-                <b val="0"/>
-                <i val="0"/>
-                <color theme="0" tint="-0.34998626667073579"/>
-              </font>
-              <fill>
-                <patternFill patternType="none">
-                  <bgColor auto="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B27:C27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{59012C07-666C-4F56-95B0-78771C9B381A}">
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{8720D447-91FC-4C0D-A4B3-100E6B7FF6BE}">
             <xm:f>NOT(ISERROR(SEARCH("ignored",B28)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
@@ -4774,8 +4885,8 @@
           <xm:sqref>B28:C28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{C25CAC70-676A-42AB-BA3C-2EEE4802F042}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B32)))</xm:f>
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{59012C07-666C-4F56-95B0-78771C9B381A}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B29)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4790,10 +4901,48 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B32:C32</xm:sqref>
+          <xm:sqref>B29:C29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{4383E583-D460-4FA3-BC9D-9C74499F6564}">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{C25CAC70-676A-42AB-BA3C-2EEE4802F042}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B33)))</xm:f>
+            <xm:f>"ignored"</xm:f>
+            <x14:dxf>
+              <font>
+                <b val="0"/>
+                <i val="0"/>
+                <color theme="0" tint="-0.34998626667073579"/>
+              </font>
+              <fill>
+                <patternFill patternType="none">
+                  <bgColor auto="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B33:C33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{4383E583-D460-4FA3-BC9D-9C74499F6564}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B8)))</xm:f>
+            <xm:f>"ignored"</xm:f>
+            <x14:dxf>
+              <font>
+                <b val="0"/>
+                <i val="0"/>
+                <color theme="0" tint="-0.34998626667073579"/>
+              </font>
+              <fill>
+                <patternFill patternType="none">
+                  <bgColor auto="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B8:C8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{666D4A2C-0524-4BB5-A593-1073D12F29C1}">
             <xm:f>NOT(ISERROR(SEARCH("ignored",B7)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>

--- a/examples/node-red-contrib-sonos-plus 40  Commands.xlsx
+++ b/examples/node-red-contrib-sonos-plus 40  Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\node-red-contrib-sonos-plus\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF80B9E-471A-4B32-BCDF-C246EA947C9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C22379E-B495-4A77-BEB0-F496EAE883BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{12C28715-236A-4339-BC9B-A8B167B552A0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="237">
   <si>
     <t>group.adjust.volume</t>
   </si>
@@ -704,6 +704,48 @@
   </si>
   <si>
     <t>is a build in group command. Works together with group.create.snapvolume</t>
+  </si>
+  <si>
+    <t>household.create.group</t>
+  </si>
+  <si>
+    <t>player list</t>
+  </si>
+  <si>
+    <t>csv-player-list</t>
+  </si>
+  <si>
+    <t>REGEX_CSV</t>
+  </si>
+  <si>
+    <t>string2ValidRegex</t>
+  </si>
+  <si>
+    <t>SONOS player names</t>
+  </si>
+  <si>
+    <t>creats a group - first player in csv list will become coordinator</t>
+  </si>
+  <si>
+    <t>household.separate.group</t>
+  </si>
+  <si>
+    <t>sepearates the group of the player - all become stand alone player</t>
+  </si>
+  <si>
+    <t>player.become.standalone</t>
+  </si>
+  <si>
+    <t>player leaves its group and become coordinator in standalone group (same as player.leave.group)</t>
+  </si>
+  <si>
+    <t>new coordinator name</t>
+  </si>
+  <si>
+    <t>coordinator delegates its role to another player in group!</t>
+  </si>
+  <si>
+    <t>coordinator.delegate</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1468,11 +1510,15 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="42">
     <dxf>
       <fill>
         <patternFill>
@@ -1511,6 +1557,44 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1644,6 +1728,36 @@
       <font>
         <b val="0"/>
         <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
@@ -2127,10 +2241,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2231,13 +2345,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="71" t="s">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="D4" s="78" t="s">
         <v>57</v>
@@ -2262,18 +2376,18 @@
       </c>
       <c r="K4" s="41"/>
       <c r="L4" s="72" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>57</v>
+      <c r="A5" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>197</v>
       </c>
       <c r="D5" s="78" t="s">
         <v>57</v>
@@ -2281,13 +2395,13 @@
       <c r="E5" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="81" t="s">
+      <c r="F5" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="91" t="s">
         <v>92</v>
       </c>
       <c r="I5" s="67" t="s">
@@ -2298,12 +2412,12 @@
       </c>
       <c r="K5" s="41"/>
       <c r="L5" s="72" t="s">
-        <v>75</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>92</v>
@@ -2312,7 +2426,7 @@
         <v>57</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="E6" s="62" t="s">
         <v>186</v>
@@ -2327,17 +2441,19 @@
         <v>92</v>
       </c>
       <c r="I6" s="67" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="J6" s="101" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="72"/>
+        <v>57</v>
+      </c>
+      <c r="K6" s="41"/>
+      <c r="L6" s="72" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="72" t="s">
-        <v>220</v>
+        <v>2</v>
       </c>
       <c r="B7" s="80" t="s">
         <v>92</v>
@@ -2346,7 +2462,7 @@
         <v>57</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="E7" s="62" t="s">
         <v>186</v>
@@ -2361,19 +2477,17 @@
         <v>92</v>
       </c>
       <c r="I7" s="67" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="J7" s="101" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="K7" s="39"/>
-      <c r="L7" s="72" t="s">
-        <v>221</v>
-      </c>
+      <c r="L7" s="72"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="72" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B8" s="80" t="s">
         <v>92</v>
@@ -2397,19 +2511,19 @@
         <v>92</v>
       </c>
       <c r="I8" s="67" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="J8" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" s="41"/>
+        <v>57</v>
+      </c>
+      <c r="K8" s="39"/>
       <c r="L8" s="72" t="s">
-        <v>71</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="72" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="B9" s="80" t="s">
         <v>92</v>
@@ -2433,7 +2547,7 @@
         <v>92</v>
       </c>
       <c r="I9" s="67" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="J9" s="101" t="s">
         <v>97</v>
@@ -2445,7 +2559,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>92</v>
@@ -2476,12 +2590,12 @@
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="72" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>92</v>
@@ -2505,19 +2619,19 @@
         <v>92</v>
       </c>
       <c r="I11" s="67" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J11" s="101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K11" s="41"/>
       <c r="L11" s="72" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="80" t="s">
         <v>92</v>
@@ -2541,19 +2655,19 @@
         <v>92</v>
       </c>
       <c r="I12" s="67" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J12" s="101" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K12" s="41"/>
       <c r="L12" s="72" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="80" t="s">
         <v>92</v>
@@ -2577,19 +2691,19 @@
         <v>92</v>
       </c>
       <c r="I13" s="67" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="J13" s="101" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K13" s="41"/>
       <c r="L13" s="72" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>92</v>
@@ -2613,19 +2727,19 @@
         <v>92</v>
       </c>
       <c r="I14" s="67" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="J14" s="101" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="80" t="s">
         <v>92</v>
@@ -2649,19 +2763,19 @@
         <v>92</v>
       </c>
       <c r="I15" s="67" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="J15" s="101" t="s">
         <v>96</v>
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="72" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="80" t="s">
         <v>92</v>
@@ -2685,19 +2799,19 @@
         <v>92</v>
       </c>
       <c r="I16" s="67" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="J16" s="101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K16" s="41"/>
       <c r="L16" s="72" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="80" t="s">
         <v>92</v>
@@ -2721,19 +2835,19 @@
         <v>92</v>
       </c>
       <c r="I17" s="67" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J17" s="101" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="K17" s="41"/>
       <c r="L17" s="72" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="80" t="s">
         <v>92</v>
@@ -2764,12 +2878,12 @@
       </c>
       <c r="K18" s="41"/>
       <c r="L18" s="72" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="80" t="s">
         <v>92</v>
@@ -2783,11 +2897,11 @@
       <c r="E19" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F19" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="G19" s="62" t="s">
-        <v>186</v>
+      <c r="F19" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="H19" s="81" t="s">
         <v>92</v>
@@ -2805,28 +2919,28 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="80" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="C20" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F20" s="64" t="s">
-        <v>92</v>
+      <c r="F20" s="62" t="s">
+        <v>186</v>
       </c>
       <c r="G20" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="H20" s="93" t="s">
-        <v>186</v>
+      <c r="H20" s="81" t="s">
+        <v>92</v>
       </c>
       <c r="I20" s="67" t="s">
         <v>85</v>
@@ -2841,28 +2955,28 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="83" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="78" t="s">
-        <v>158</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>57</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F21" s="62" t="s">
-        <v>186</v>
+      <c r="F21" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="G21" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="H21" s="81" t="s">
-        <v>92</v>
+      <c r="H21" s="93" t="s">
+        <v>186</v>
       </c>
       <c r="I21" s="67" t="s">
         <v>85</v>
@@ -2870,23 +2984,23 @@
       <c r="J21" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="39"/>
+      <c r="K21" s="41"/>
       <c r="L21" s="72" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="81" t="s">
-        <v>57</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="83" t="s">
+        <v>165</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="E22" s="62" t="s">
         <v>186</v>
@@ -2913,13 +3027,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D23" s="78" t="s">
         <v>57</v>
@@ -2927,11 +3041,11 @@
       <c r="E23" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F23" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="64" t="s">
-        <v>92</v>
+      <c r="F23" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>186</v>
       </c>
       <c r="H23" s="81" t="s">
         <v>92</v>
@@ -2949,13 +3063,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="82" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="83" t="s">
-        <v>165</v>
+        <v>17</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="81" t="s">
+        <v>96</v>
       </c>
       <c r="D24" s="78" t="s">
         <v>57</v>
@@ -2963,11 +3077,11 @@
       <c r="E24" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="G24" s="62" t="s">
-        <v>186</v>
+      <c r="F24" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="H24" s="81" t="s">
         <v>92</v>
@@ -2985,13 +3099,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="82" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C25" s="83" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="D25" s="78" t="s">
         <v>57</v>
@@ -3021,13 +3135,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="82" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="C26" s="83" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="D26" s="78" t="s">
         <v>57</v>
@@ -3057,13 +3171,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="81" t="s">
-        <v>57</v>
+        <v>20</v>
+      </c>
+      <c r="B27" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="83" t="s">
+        <v>62</v>
       </c>
       <c r="D27" s="78" t="s">
         <v>57</v>
@@ -3071,11 +3185,11 @@
       <c r="E27" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F27" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="64" t="s">
-        <v>92</v>
+      <c r="F27" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="62" t="s">
+        <v>186</v>
       </c>
       <c r="H27" s="81" t="s">
         <v>92</v>
@@ -3088,18 +3202,18 @@
       </c>
       <c r="K27" s="39"/>
       <c r="L27" s="72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="72" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="B28" s="80" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="D28" s="78" t="s">
         <v>57</v>
@@ -3124,7 +3238,7 @@
       </c>
       <c r="K28" s="39"/>
       <c r="L28" s="72" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
@@ -3132,7 +3246,7 @@
         <v>208</v>
       </c>
       <c r="B29" s="80" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="C29" s="81" t="s">
         <v>165</v>
@@ -3165,16 +3279,16 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="83" t="s">
-        <v>148</v>
+        <v>208</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="81" t="s">
+        <v>165</v>
       </c>
       <c r="D30" s="78" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="E30" s="62" t="s">
         <v>186</v>
@@ -3196,21 +3310,21 @@
       </c>
       <c r="K30" s="39"/>
       <c r="L30" s="72" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="82" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C31" s="83" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="D31" s="78" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="E31" s="62" t="s">
         <v>186</v>
@@ -3232,18 +3346,18 @@
       </c>
       <c r="K31" s="39"/>
       <c r="L31" s="72" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="82" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="C32" s="83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D32" s="78" t="s">
         <v>57</v>
@@ -3268,18 +3382,18 @@
       </c>
       <c r="K32" s="39"/>
       <c r="L32" s="72" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="72" t="s">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="B33" s="82" t="s">
-        <v>216</v>
-      </c>
-      <c r="C33" s="81" t="s">
-        <v>212</v>
+        <v>215</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>64</v>
       </c>
       <c r="D33" s="78" t="s">
         <v>57</v>
@@ -3309,13 +3423,13 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="72" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="B34" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="83" t="s">
-        <v>63</v>
+        <v>216</v>
+      </c>
+      <c r="C34" s="81" t="s">
+        <v>212</v>
       </c>
       <c r="D34" s="78" t="s">
         <v>57</v>
@@ -3340,12 +3454,12 @@
       </c>
       <c r="K34" s="39"/>
       <c r="L34" s="72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="82" t="s">
         <v>63</v>
@@ -3376,18 +3490,18 @@
       </c>
       <c r="K35" s="39"/>
       <c r="L35" s="72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="82" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="C36" s="83" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="D36" s="78" t="s">
         <v>57</v>
@@ -3412,18 +3526,18 @@
       </c>
       <c r="K36" s="39"/>
       <c r="L36" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="82" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C37" s="83" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="D37" s="78" t="s">
         <v>57</v>
@@ -3448,18 +3562,18 @@
       </c>
       <c r="K37" s="39"/>
       <c r="L37" s="72" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="72" t="s">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="B38" s="82" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="C38" s="83" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="D38" s="78" t="s">
         <v>57</v>
@@ -3484,18 +3598,18 @@
       </c>
       <c r="K38" s="39"/>
       <c r="L38" s="72" t="s">
-        <v>219</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="84" t="s">
-        <v>57</v>
+        <v>217</v>
+      </c>
+      <c r="B39" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="83" t="s">
+        <v>197</v>
       </c>
       <c r="D39" s="78" t="s">
         <v>57</v>
@@ -3520,12 +3634,12 @@
       </c>
       <c r="K39" s="39"/>
       <c r="L39" s="72" t="s">
-        <v>67</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40" s="80" t="s">
         <v>92</v>
@@ -3561,19 +3675,19 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" s="80" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="E41" s="64" t="s">
-        <v>92</v>
+        <v>92</v>
+      </c>
+      <c r="C41" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="62" t="s">
+        <v>186</v>
       </c>
       <c r="F41" s="64" t="s">
         <v>92</v>
@@ -3591,20 +3705,22 @@
         <v>57</v>
       </c>
       <c r="K41" s="39"/>
-      <c r="L41" s="72"/>
+      <c r="L41" s="72" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="78" t="s">
-        <v>57</v>
+        <v>168</v>
+      </c>
+      <c r="C42" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="94" t="s">
+        <v>192</v>
       </c>
       <c r="E42" s="64" t="s">
         <v>92</v>
@@ -3619,28 +3735,28 @@
         <v>92</v>
       </c>
       <c r="I42" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J42" s="101" t="s">
-        <v>101</v>
-      </c>
-      <c r="K42" s="41"/>
+        <v>57</v>
+      </c>
+      <c r="K42" s="39"/>
       <c r="L42" s="72"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="85" t="s">
-        <v>173</v>
+        <v>223</v>
+      </c>
+      <c r="B43" s="80" t="s">
+        <v>224</v>
       </c>
       <c r="C43" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="64" t="s">
         <v>92</v>
       </c>
       <c r="F43" s="64" t="s">
@@ -3659,17 +3775,19 @@
         <v>57</v>
       </c>
       <c r="K43" s="39"/>
-      <c r="L43" s="72"/>
+      <c r="L43" s="72" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B44" s="80" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="83" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="C44" s="81" t="s">
+        <v>57</v>
       </c>
       <c r="D44" s="78" t="s">
         <v>57</v>
@@ -3687,28 +3805,28 @@
         <v>92</v>
       </c>
       <c r="I44" s="67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J44" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="K44" s="39"/>
+        <v>101</v>
+      </c>
+      <c r="K44" s="41"/>
       <c r="L44" s="72"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="80" t="s">
-        <v>194</v>
+        <v>33</v>
+      </c>
+      <c r="B45" s="85" t="s">
+        <v>173</v>
       </c>
       <c r="C45" s="83" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D45" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="45" t="s">
         <v>92</v>
       </c>
       <c r="F45" s="64" t="s">
@@ -3721,38 +3839,38 @@
         <v>92</v>
       </c>
       <c r="I45" s="67" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J45" s="101" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="K45" s="39"/>
       <c r="L45" s="72"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="C46" s="83" t="s">
-        <v>165</v>
+        <v>230</v>
+      </c>
+      <c r="B46" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="81" t="s">
+        <v>57</v>
       </c>
       <c r="D46" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="E46" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="F46" s="62" t="s">
-        <v>186</v>
+        <v>57</v>
+      </c>
+      <c r="E46" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="G46" s="64" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="H46" s="81" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="I46" s="67" t="s">
         <v>85</v>
@@ -3761,23 +3879,25 @@
         <v>57</v>
       </c>
       <c r="K46" s="39"/>
-      <c r="L46" s="72"/>
+      <c r="L46" s="72" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="82" t="s">
-        <v>163</v>
+        <v>34</v>
+      </c>
+      <c r="B47" s="80" t="s">
+        <v>168</v>
       </c>
       <c r="C47" s="83" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="D47" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="62" t="s">
-        <v>186</v>
+      <c r="E47" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="F47" s="64" t="s">
         <v>92</v>
@@ -3795,25 +3915,23 @@
         <v>57</v>
       </c>
       <c r="K47" s="39"/>
-      <c r="L47" s="72" t="s">
-        <v>70</v>
-      </c>
+      <c r="L47" s="72"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="72" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
       <c r="B48" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="81" t="s">
-        <v>57</v>
+        <v>194</v>
+      </c>
+      <c r="C48" s="83" t="s">
+        <v>93</v>
       </c>
       <c r="D48" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="62" t="s">
-        <v>186</v>
+      <c r="E48" s="59" t="s">
+        <v>92</v>
       </c>
       <c r="F48" s="64" t="s">
         <v>92</v>
@@ -3825,61 +3943,57 @@
         <v>92</v>
       </c>
       <c r="I48" s="67" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="J48" s="101" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="K48" s="39"/>
-      <c r="L48" s="72" t="s">
-        <v>70</v>
-      </c>
+      <c r="L48" s="72"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="81" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="B49" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="83" t="s">
+        <v>165</v>
       </c>
       <c r="D49" s="78" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="E49" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F49" s="64" t="s">
-        <v>92</v>
+      <c r="F49" s="62" t="s">
+        <v>186</v>
       </c>
       <c r="G49" s="64" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="H49" s="81" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="I49" s="67" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="J49" s="101" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="K49" s="39"/>
-      <c r="L49" s="72" t="s">
-        <v>70</v>
-      </c>
+      <c r="L49" s="72"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="81" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="B50" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="83" t="s">
+        <v>197</v>
       </c>
       <c r="D50" s="78" t="s">
         <v>57</v>
@@ -3897,10 +4011,10 @@
         <v>92</v>
       </c>
       <c r="I50" s="67" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="J50" s="101" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="K50" s="39"/>
       <c r="L50" s="72" t="s">
@@ -3909,7 +4023,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="72" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="B51" s="80" t="s">
         <v>92</v>
@@ -3933,19 +4047,19 @@
         <v>92</v>
       </c>
       <c r="I51" s="67" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="J51" s="101" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="K51" s="39"/>
       <c r="L51" s="72" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="72" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="B52" s="80" t="s">
         <v>92</v>
@@ -3969,10 +4083,10 @@
         <v>92</v>
       </c>
       <c r="I52" s="67" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="J52" s="101" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="K52" s="39"/>
       <c r="L52" s="72" t="s">
@@ -3981,7 +4095,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="72" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B53" s="80" t="s">
         <v>92</v>
@@ -4017,7 +4131,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="72" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B54" s="80" t="s">
         <v>92</v>
@@ -4041,10 +4155,10 @@
         <v>92</v>
       </c>
       <c r="I54" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J54" s="101" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K54" s="39"/>
       <c r="L54" s="72" t="s">
@@ -4053,7 +4167,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="72" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B55" s="80" t="s">
         <v>92</v>
@@ -4077,10 +4191,10 @@
         <v>92</v>
       </c>
       <c r="I55" s="67" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="J55" s="101" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K55" s="39"/>
       <c r="L55" s="72" t="s">
@@ -4089,7 +4203,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="72" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B56" s="80" t="s">
         <v>92</v>
@@ -4113,21 +4227,19 @@
         <v>92</v>
       </c>
       <c r="I56" s="67" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J56" s="101" t="s">
-        <v>109</v>
-      </c>
-      <c r="K56" s="38" t="s">
-        <v>59</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="K56" s="39"/>
       <c r="L56" s="72" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="72" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B57" s="80" t="s">
         <v>92</v>
@@ -4151,10 +4263,10 @@
         <v>92</v>
       </c>
       <c r="I57" s="67" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J57" s="101" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K57" s="39"/>
       <c r="L57" s="72" t="s">
@@ -4163,7 +4275,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="72" t="s">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="B58" s="80" t="s">
         <v>92</v>
@@ -4187,10 +4299,10 @@
         <v>92</v>
       </c>
       <c r="I58" s="67" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="J58" s="101" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="K58" s="39"/>
       <c r="L58" s="72" t="s">
@@ -4199,7 +4311,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="72" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B59" s="80" t="s">
         <v>92</v>
@@ -4223,10 +4335,10 @@
         <v>92</v>
       </c>
       <c r="I59" s="67" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="J59" s="101" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K59" s="39"/>
       <c r="L59" s="72" t="s">
@@ -4235,13 +4347,13 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="82" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" s="83" t="s">
-        <v>93</v>
+        <v>44</v>
+      </c>
+      <c r="B60" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="81" t="s">
+        <v>57</v>
       </c>
       <c r="D60" s="78" t="s">
         <v>57</v>
@@ -4259,17 +4371,21 @@
         <v>92</v>
       </c>
       <c r="I60" s="67" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="J60" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="K60" s="39"/>
-      <c r="L60" s="72"/>
+        <v>109</v>
+      </c>
+      <c r="K60" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="L60" s="72" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="72" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B61" s="80" t="s">
         <v>92</v>
@@ -4293,23 +4409,25 @@
         <v>92</v>
       </c>
       <c r="I61" s="67" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="J61" s="101" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="K61" s="39"/>
-      <c r="L61" s="72"/>
+      <c r="L61" s="72" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" s="82" t="s">
-        <v>170</v>
-      </c>
-      <c r="C62" s="83" t="s">
-        <v>165</v>
+        <v>202</v>
+      </c>
+      <c r="B62" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="81" t="s">
+        <v>57</v>
       </c>
       <c r="D62" s="78" t="s">
         <v>57</v>
@@ -4317,8 +4435,8 @@
       <c r="E62" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F62" s="62" t="s">
-        <v>186</v>
+      <c r="F62" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="G62" s="64" t="s">
         <v>92</v>
@@ -4327,25 +4445,25 @@
         <v>92</v>
       </c>
       <c r="I62" s="67" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="J62" s="101" t="s">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="K62" s="39"/>
       <c r="L62" s="72" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="72" t="s">
-        <v>204</v>
-      </c>
-      <c r="B63" s="82" t="s">
-        <v>207</v>
+        <v>46</v>
+      </c>
+      <c r="B63" s="80" t="s">
+        <v>92</v>
       </c>
       <c r="C63" s="81" t="s">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c r="D63" s="78" t="s">
         <v>57</v>
@@ -4363,10 +4481,10 @@
         <v>92</v>
       </c>
       <c r="I63" s="67" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="J63" s="101" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="K63" s="39"/>
       <c r="L63" s="72" t="s">
@@ -4375,13 +4493,13 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="72" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B64" s="82" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C64" s="83" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D64" s="78" t="s">
         <v>57</v>
@@ -4405,19 +4523,17 @@
         <v>57</v>
       </c>
       <c r="K64" s="39"/>
-      <c r="L64" s="72" t="s">
-        <v>70</v>
-      </c>
+      <c r="L64" s="72"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="83" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="B65" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="81" t="s">
+        <v>57</v>
       </c>
       <c r="D65" s="78" t="s">
         <v>57</v>
@@ -4441,19 +4557,17 @@
         <v>57</v>
       </c>
       <c r="K65" s="39"/>
-      <c r="L65" s="72" t="s">
-        <v>70</v>
-      </c>
+      <c r="L65" s="72"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="72" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B66" s="82" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="C66" s="83" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="D66" s="78" t="s">
         <v>57</v>
@@ -4461,8 +4575,8 @@
       <c r="E66" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="F66" s="64" t="s">
-        <v>92</v>
+      <c r="F66" s="62" t="s">
+        <v>186</v>
       </c>
       <c r="G66" s="64" t="s">
         <v>92</v>
@@ -4478,18 +4592,18 @@
       </c>
       <c r="K66" s="39"/>
       <c r="L66" s="72" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="72" t="s">
-        <v>53</v>
+        <v>204</v>
       </c>
       <c r="B67" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C67" s="83" t="s">
-        <v>63</v>
+        <v>207</v>
+      </c>
+      <c r="C67" s="81" t="s">
+        <v>205</v>
       </c>
       <c r="D67" s="78" t="s">
         <v>57</v>
@@ -4519,7 +4633,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="72" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B68" s="82" t="s">
         <v>63</v>
@@ -4555,13 +4669,13 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" s="80" t="s">
-        <v>185</v>
+        <v>51</v>
+      </c>
+      <c r="B69" s="82" t="s">
+        <v>63</v>
       </c>
       <c r="C69" s="83" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="D69" s="78" t="s">
         <v>57</v>
@@ -4591,13 +4705,13 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="72" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="B70" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="C70" s="81" t="s">
-        <v>205</v>
+        <v>63</v>
+      </c>
+      <c r="C70" s="83" t="s">
+        <v>63</v>
       </c>
       <c r="D70" s="78" t="s">
         <v>57</v>
@@ -4625,142 +4739,311 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="73" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A71" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="F71" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G71" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I71" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J71" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="K71" s="39"/>
+      <c r="L71" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A72" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="F72" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G72" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H72" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I72" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J72" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="K72" s="39"/>
+      <c r="L72" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A73" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="C73" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E73" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="F73" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G73" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H73" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I73" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J73" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="K73" s="39"/>
+      <c r="L73" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A74" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="F74" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="G74" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H74" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I74" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J74" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="K74" s="39"/>
+      <c r="L74" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A75" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="86" t="s">
+      <c r="B75" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="C71" s="87" t="s">
+      <c r="C75" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="D71" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="E71" s="96" t="s">
-        <v>186</v>
-      </c>
-      <c r="F71" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="G71" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="H71" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="I71" s="68" t="s">
+      <c r="D75" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F75" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="G75" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="H75" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="I75" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="J71" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="K71" s="43"/>
-      <c r="L71" s="73" t="s">
+      <c r="J75" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="K75" s="43"/>
+      <c r="L75" s="73" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L71">
-    <sortCondition ref="A4:A71"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L75">
+    <sortCondition ref="A5:A75"/>
   </sortState>
-  <conditionalFormatting sqref="E4:H6 E49:H57 E59:H62 E64:H69 E71:H71 E30:H32 E9:H27 E34:H47">
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E4)))</formula>
+  <conditionalFormatting sqref="E5:H7 E53:H61 E63:H66 E68:H73 E75:H75 E31:H33 E10:H28 E35:H41 E43:H51">
+    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L6 A49:L57 A59:L62 A64:L69 A71:L71 A30:L32 A9:L27 A34:L47">
-    <cfRule type="expression" dxfId="33" priority="31">
+  <conditionalFormatting sqref="A5:L7 A53:L61 A63:L66 A68:L73 A75:L75 A31:L33 A10:L28 A35:L41 A43:L50 B51:L51">
+    <cfRule type="expression" dxfId="40" priority="38">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48:H48">
-    <cfRule type="containsText" dxfId="32" priority="26" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E48)))</formula>
+  <conditionalFormatting sqref="E52:H52">
+    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E52)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48:L48">
-    <cfRule type="expression" dxfId="31" priority="25">
+  <conditionalFormatting sqref="A52:L52">
+    <cfRule type="expression" dxfId="38" priority="32">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58:H58">
-    <cfRule type="containsText" dxfId="30" priority="23" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E58)))</formula>
+  <conditionalFormatting sqref="E62:H62">
+    <cfRule type="containsText" dxfId="37" priority="30" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E62)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:L58">
-    <cfRule type="expression" dxfId="29" priority="22">
+  <conditionalFormatting sqref="A62:L62">
+    <cfRule type="expression" dxfId="36" priority="29">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63:H63">
-    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E63)))</formula>
+  <conditionalFormatting sqref="E67:H67">
+    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E67)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:L63">
-    <cfRule type="expression" dxfId="27" priority="19">
+  <conditionalFormatting sqref="A67:L67">
+    <cfRule type="expression" dxfId="34" priority="26">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:H70">
-    <cfRule type="containsText" dxfId="26" priority="17" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E70)))</formula>
+  <conditionalFormatting sqref="E74:H74">
+    <cfRule type="containsText" dxfId="33" priority="24" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E74)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:L70">
-    <cfRule type="expression" dxfId="25" priority="16">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:H28">
-    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:L28">
-    <cfRule type="expression" dxfId="23" priority="13">
+  <conditionalFormatting sqref="A74:L74">
+    <cfRule type="expression" dxfId="32" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:H29">
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:L29">
-    <cfRule type="expression" dxfId="21" priority="10">
+    <cfRule type="expression" dxfId="30" priority="20">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:H33">
-    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E33)))</formula>
+  <conditionalFormatting sqref="E30:H30">
+    <cfRule type="containsText" dxfId="29" priority="18" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:L33">
-    <cfRule type="expression" dxfId="19" priority="7">
+  <conditionalFormatting sqref="A30:L30">
+    <cfRule type="expression" dxfId="28" priority="17">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:H34">
+    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:L34">
+    <cfRule type="expression" dxfId="26" priority="14">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:H9">
+    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:L9">
+    <cfRule type="expression" dxfId="24" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:L8">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:H7">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="ignored">
-      <formula>NOT(ISERROR(SEARCH("ignored",E7)))</formula>
+  <conditionalFormatting sqref="E42:H42">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:L7">
+  <conditionalFormatting sqref="A42:L42">
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:H4">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="ignored">
+      <formula>NOT(ISERROR(SEARCH("ignored",E4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:L4">
     <cfRule type="expression" dxfId="6" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -4771,8 +5054,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{1556FE7F-47CC-4BB7-BBF9-3F28C014F253}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B4)))</xm:f>
+          <x14:cfRule type="containsText" priority="42" operator="containsText" id="{1556FE7F-47CC-4BB7-BBF9-3F28C014F253}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B5)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4787,11 +5070,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C4 B5:C6 B49:C57 B59:C62 B64:C69 B71:C71 B30:C32 B34:C47 B9:C27</xm:sqref>
+          <xm:sqref>C5 B6:C7 B53:C61 B63:C66 B68:C73 B75:C75 B31:C33 B35:C41 B10:C28 B43:C51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{06343100-0CC5-4265-9340-32C52B858DAA}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B48)))</xm:f>
+          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{06343100-0CC5-4265-9340-32C52B858DAA}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B52)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4806,11 +5089,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B48:C48</xm:sqref>
+          <xm:sqref>B52:C52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{F50224FF-908A-4752-B859-31EA26E3A671}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B58)))</xm:f>
+          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{F50224FF-908A-4752-B859-31EA26E3A671}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B62)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4825,11 +5108,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B58:C58</xm:sqref>
+          <xm:sqref>B62:C62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{6E2188D2-4170-4BDA-A538-80F9A47C11A4}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B63)))</xm:f>
+          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{6E2188D2-4170-4BDA-A538-80F9A47C11A4}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B67)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4844,11 +5127,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B63:C63</xm:sqref>
+          <xm:sqref>B67:C67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{FA22152F-42A3-41DE-AE96-08EF0D8FDFF8}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B70)))</xm:f>
+          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{FA22152F-42A3-41DE-AE96-08EF0D8FDFF8}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B74)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4863,29 +5146,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B70:C70</xm:sqref>
+          <xm:sqref>B74:C74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{8720D447-91FC-4C0D-A4B3-100E6B7FF6BE}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B28)))</xm:f>
-            <xm:f>"ignored"</xm:f>
-            <x14:dxf>
-              <font>
-                <b val="0"/>
-                <i val="0"/>
-                <color theme="0" tint="-0.34998626667073579"/>
-              </font>
-              <fill>
-                <patternFill patternType="none">
-                  <bgColor auto="1"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B28:C28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{59012C07-666C-4F56-95B0-78771C9B381A}">
+          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{8720D447-91FC-4C0D-A4B3-100E6B7FF6BE}">
             <xm:f>NOT(ISERROR(SEARCH("ignored",B29)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
@@ -4904,8 +5168,8 @@
           <xm:sqref>B29:C29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{C25CAC70-676A-42AB-BA3C-2EEE4802F042}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B33)))</xm:f>
+          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{59012C07-666C-4F56-95B0-78771C9B381A}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B30)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4920,10 +5184,48 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B33:C33</xm:sqref>
+          <xm:sqref>B30:C30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{4383E583-D460-4FA3-BC9D-9C74499F6564}">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{C25CAC70-676A-42AB-BA3C-2EEE4802F042}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B34)))</xm:f>
+            <xm:f>"ignored"</xm:f>
+            <x14:dxf>
+              <font>
+                <b val="0"/>
+                <i val="0"/>
+                <color theme="0" tint="-0.34998626667073579"/>
+              </font>
+              <fill>
+                <patternFill patternType="none">
+                  <bgColor auto="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B34:C34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{4383E583-D460-4FA3-BC9D-9C74499F6564}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B9)))</xm:f>
+            <xm:f>"ignored"</xm:f>
+            <x14:dxf>
+              <font>
+                <b val="0"/>
+                <i val="0"/>
+                <color theme="0" tint="-0.34998626667073579"/>
+              </font>
+              <fill>
+                <patternFill patternType="none">
+                  <bgColor auto="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B9:C9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{666D4A2C-0524-4BB5-A593-1073D12F29C1}">
             <xm:f>NOT(ISERROR(SEARCH("ignored",B8)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
@@ -4942,8 +5244,8 @@
           <xm:sqref>B8:C8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{666D4A2C-0524-4BB5-A593-1073D12F29C1}">
-            <xm:f>NOT(ISERROR(SEARCH("ignored",B7)))</xm:f>
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{90236E1E-82E5-45D3-A229-68C39DAC7820}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",B42)))</xm:f>
             <xm:f>"ignored"</xm:f>
             <x14:dxf>
               <font>
@@ -4958,7 +5260,26 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B7:C7</xm:sqref>
+          <xm:sqref>B42:C42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{1FE14874-6D87-4E4E-AF5D-A1263D330E9A}">
+            <xm:f>NOT(ISERROR(SEARCH("ignored",C4)))</xm:f>
+            <xm:f>"ignored"</xm:f>
+            <x14:dxf>
+              <font>
+                <b val="0"/>
+                <i val="0"/>
+                <color theme="0" tint="-0.34998626667073579"/>
+              </font>
+              <fill>
+                <patternFill patternType="none">
+                  <bgColor auto="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5348,10 +5669,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D058AD-C5D7-4A04-87B2-AA9255366B4A}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5628,34 +5949,51 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" s="112" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F16" s="19" t="s">
         <v>155</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F15">
-    <sortCondition ref="A2:A15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F16">
+    <sortCondition ref="A2:A16"/>
   </sortState>
-  <conditionalFormatting sqref="B2:B15">
+  <conditionalFormatting sqref="B2:B16">
     <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="ignored">
       <formula>ISERROR(SEARCH("ignored",B2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F15">
+  <conditionalFormatting sqref="A2:F16">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/examples/node-red-contrib-sonos-plus 40  Commands.xlsx
+++ b/examples/node-red-contrib-sonos-plus 40  Commands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\node-red-contrib-sonos-plus\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C22379E-B495-4A77-BEB0-F496EAE883BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CB2110-3F6B-4120-9ED4-E88A765CFD6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{12C28715-236A-4339-BC9B-A8B167B552A0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{12C28715-236A-4339-BC9B-A8B167B552A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Universal" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="243">
   <si>
     <t>group.adjust.volume</t>
   </si>
@@ -746,13 +746,31 @@
   </si>
   <si>
     <t>coordinator.delegate</t>
+  </si>
+  <si>
+    <t>playback states</t>
+  </si>
+  <si>
+    <t>'stopped' 'playing' 'paused' 'transitioning' 'no_media'</t>
+  </si>
+  <si>
+    <t>queue states</t>
+  </si>
+  <si>
+    <t>'NORMAL' 'REPEAT_ONE' 'REPEAT_ALL' 'SHUFFLE' 'SHUFFLE_NOREPEAT' 'SHUFFLE_REPEAT_ONE'</t>
+  </si>
+  <si>
+    <t>'Sonos Beam' 'Sonos Playbar' 'Sonos Playbase' 'Sonos Arc'</t>
+  </si>
+  <si>
+    <t>Player with tv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,6 +844,13 @@
       <name val="Wingdings 2"/>
       <family val="1"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1311,7 +1336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1514,11 +1539,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="43">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1546,74 +1579,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -1740,6 +1705,74 @@
       <font>
         <b val="0"/>
         <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
@@ -2243,8 +2276,8 @@
   </sheetPr>
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4924,127 +4957,127 @@
     <sortCondition ref="A5:A75"/>
   </sortState>
   <conditionalFormatting sqref="E5:H7 E53:H61 E63:H66 E68:H73 E75:H75 E31:H33 E10:H28 E35:H41 E43:H51">
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:L7 A53:L61 A63:L66 A68:L73 A75:L75 A31:L33 A10:L28 A35:L41 A43:L50 B51:L51">
-    <cfRule type="expression" dxfId="40" priority="38">
+    <cfRule type="expression" dxfId="41" priority="38">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:H52">
-    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:L52">
-    <cfRule type="expression" dxfId="38" priority="32">
+    <cfRule type="expression" dxfId="39" priority="32">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62:H62">
-    <cfRule type="containsText" dxfId="37" priority="30" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="38" priority="30" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:L62">
-    <cfRule type="expression" dxfId="36" priority="29">
+    <cfRule type="expression" dxfId="37" priority="29">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67:H67">
-    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="36" priority="27" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:L67">
-    <cfRule type="expression" dxfId="34" priority="26">
+    <cfRule type="expression" dxfId="35" priority="26">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:H74">
-    <cfRule type="containsText" dxfId="33" priority="24" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="34" priority="24" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:L74">
-    <cfRule type="expression" dxfId="32" priority="23">
+    <cfRule type="expression" dxfId="33" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:H29">
-    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="32" priority="21" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:L29">
-    <cfRule type="expression" dxfId="30" priority="20">
+    <cfRule type="expression" dxfId="31" priority="20">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:H30">
-    <cfRule type="containsText" dxfId="29" priority="18" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="30" priority="18" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:L30">
-    <cfRule type="expression" dxfId="28" priority="17">
+    <cfRule type="expression" dxfId="29" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:H34">
-    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:L34">
-    <cfRule type="expression" dxfId="26" priority="14">
+    <cfRule type="expression" dxfId="27" priority="14">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:H9">
-    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:L9">
-    <cfRule type="expression" dxfId="24" priority="11">
+    <cfRule type="expression" dxfId="25" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:H8">
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:L8">
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="23" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:H42">
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:L42">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:H4">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5648,17 +5681,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4:H10">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="ignored">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="ignored">
       <formula>NOT(ISERROR(SEARCH("ignored",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L10">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B10">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"ignored"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5669,10 +5702,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D058AD-C5D7-4A04-87B2-AA9255366B4A}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5984,16 +6017,45 @@
         <v>155</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="114" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" t="s">
+        <v>241</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F16">
     <sortCondition ref="A2:A16"/>
   </sortState>
   <conditionalFormatting sqref="B2:B16">
-    <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="ignored">
+    <cfRule type="notContainsText" dxfId="2" priority="3" operator="notContains" text="ignored">
       <formula>ISERROR(SEARCH("ignored",B2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F16">
+  <conditionalFormatting sqref="A2:F16 A18">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
